--- a/500all/speech_level/speeches_CHRG-114hhrg94106.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>400654</t>
   </si>
   <si>
-    <t>Michael T. McCaul</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order. The committee is meeting today to hear testimony on violent Islamist extremism and the threat of foreign fighters and home-grown terror. I now recognize myself for an opening statement.    Today, at the first hearing of the House Committee on Homeland Security in the 114th Congress, I would like to take a moment of silence to remember all those who lost their lives at the hands of ISIS, especially Americans James Foley, Steven Sotloff, and most recently, Kayla Mueller.    These victims are the reason why we are here today. We must keep these barbaric terrorists out of the homeland to protect the American people. This hearing will also assess the urgent and growing threat of terrorist recruiting and inspiring Americans. We need to accurately define the threat, and that is violent Islamist extremism, and recognize that it is spreading like wildfire around the globe.    These fanatics want nothing less than destruction of our way of life, and now their ability to match words with deeds is growing at an astonishing rate. In recent years, their safe havens have proliferated and their ranks have swelled.    In many ways, we are no longer talking about terrorist groups. We are talking about terrorist armies. ISIS now controls a territory the size of Belgium, governs millions of people, draws on billions of dollars in revenue and commands tens of thousands of foot soldiers.    They are brutal. Their latest act of barbarism was on full display with a horrific murder of a Jordanian pilot. This evolving Islamic terrorist landscape has given rise to the dual threats of foreign fighters returning to the United States and home-grown terrorism. The recent terror attack in Paris and other attacks and plots in Belgium, Germany, the United Kingdom, Australia, Canada, and here in the United States are proof that the threat has surged and that the enemy is dead-set on attacking the West.    This map behind me shows a wide-spread surge in ISIS-linked terrorist plots over the last year alone. As Mr. Rasmussen notes in his testimony, more than 20,000 fighters from over 90 countries have made their way to the battlefield to join al-Qaeda, ISIS, and other extremist groups, making this the largest convergence of Islamist terrorists in world history.    That number continues to grow despite months of air strikes. Up to 5,000 of these fighters are Westerners, many of whom are able to travel into the United States without obtaining a visa. And more than 150 American citizens have attempted to or succeeded in getting to the battlefield, and we know that some of them have already returned to our shores. You can see this flow depicted in the graphic behind me.    But extremists do not need to travel overseas in order to become a threat to our homeland. Through Hollywood-like propaganda videos and social media and through that means, Islamist terror groups are inciting their followers and potential recruits to wage war at home.    Both ISIS, and Yemen-based al-Qaeda in the Arabian Peninsula have called for Westerners, including Americans, to wage individual jihad in their home countries, and it is working. ISIS social media also gives step-by-step instructions on how to get to the fight and how to return.    Following the attacks in Paris last month, our European partners have been busy uncovering new terrorist cells and disrupting imminent plots. Also, just recently here at home, the FBI arrested an Ohio-based ISIS sympathizer who was intending to attack the United States Capitol with pipe bombs.    I am worried about our ability to combat this threat abroad, but also here at home. I wrote to the President recently and raised concerns that we still have no lead agency in charge of countering domestic radicalization and no line item for it in the budgets of key departments and agencies.    I am also concerned that the few programs we do have in place are far too small to confront a threat that has grown so quickly.    Today, I hope to hear how the administration assesses the danger posed by foreign fighters, particularly Westerners, and the threat of home-grown terrorism here in the United States. More importantly, I hope we will hear about how the administration is responding and how it plans to ramp up its response to those challenges.    This morning, I would like to welcome all of our witnesses, but especially Mr. Rasmussen with the National Counterterrorism Center, in his first appearance before Congress after being confirmed as director, and we look forward to his testimony.    As part of our committee's focus on this critical National security issue, the Ranking Member and myself are establishing a task force on combating terrorist and foreign fighter travel. The 6-month task force will review U.S. Government efforts, focusing on DHS, to disrupt terrorist travel into our country and to combat the foreign fighter threat. It will ultimately provide recommendations to the committee on how we can improve U.S. security against these dangers.    I must say I am very disappointed that the State Department chose not to send a witness here today. The threats we are discussing are serious, and the State Department plays a key role in combating them.    I recently sent a letter to the White House expressing my concerns over the Department's desire to resettle tens of thousands of Syrian refugees here in the United States. I am worried that ISIS could exploit this effort in order to deploy operatives to America via a Federally-funded jihadi pipeline.    Before closing, I would like to again reiterate what I said at our organizational meeting last month. Mr. Thompson, we look forward to working with you to accomplish our shared goal of protecting the homeland.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400402</t>
   </si>
   <si>
-    <t>Bennie G. Thompson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, for your comments, as well as for holding today's hearing.    I would like to also welcome Director Rasmussen for his first appearance before this committee as the director of the National Counterterrorism Center. As well, I would also thank the rest of the panel for testifying about the Federal Government's effort to identify and deter foreign fighters and the Government's efforts to counter violent extremism.    I would like to express my condolences at the beginning to the family of the 26-year-old Kayla Mueller, an American aid worker who was taken hostage by the Islamic State of Iraq. U.S. officials have confirmed she was killed by the terrorist group. Mr. Chairman, Ms. Mueller's death and other recent terrorist attacks across the world over the past few months have magnified the nature of the evolving threat from the terrorist groups and state actors. The heinous actions by ISIL, including the beheading of a Japanese journalist and the terrorist group's burning of a Jordanian pilot further illustrates the abhorrent nature of this terrorist group.    Last month, the Chairman of the Joint Chiefs of Staff indicated that the radical ideology of ISIL is causing other terrorist groups to rebrand themselves and emulate ISIL.    Top U.S. officials have made public statements that foreign fighters linked to ISIL may pose a direct threat to this country. Moreover, those inspired by the ideology of ISIL, al-Qaeda, and other groups are of concern.    As we look to these threats, we cannot take a myopic view. Each attack from terrorist groups have reemphasized the global reach of terrorist activity. For instance, there was a crippling cyber attack in November on Sony Pictures Entertainment Network. In December, in Sydney, Australia, we witnessed a terrorist attack on a cafe, where at the end of a 16-hour stand-off, two innocent people lay dead.    Then in January in Paris, there was a series of execution-style murders of 12 members Charlie Hebdo's creative team. Al-Qaeda in the Arabian Peninsula has taken credit for this attack.    This serves as a reminder that the terrorist threats we face are evolving quickly. This committee's responsibility is to hold hearings and receive Classified information that lets us know the nature of the threats and how the Federal Government is dealing with the threat.    In spite of this, Mr. Chairman, the Republican majority continues to play political games with funding the Department of Homeland Security. Mr. Chairman, I, too, feel that it is meaningless to have a strategy if the ends are not paired with the means to achieve them. It is my hope that you will make the point to your colleagues and leadership who are holding the funding for a key agency and the Federal Government that Americans look to to detect, deter, and respond to a terrorist hostage situation.    Unfortunately, the Department of Homeland Security is operating under the threat of a shutdown, and it is only funded by a continuing resolution for the next 17 days. It is important that my Republican colleagues act responsibly, stop playing politics, and pass a clean DHS funding bill. Without a fully-funded Department of Homeland Security, some of our key methods of identifying terrorists and preventing terrorist travel will be at risk.    Are we really ready to stand before the American people, those who trust and value that we recognize their needs, and declare for the sake of partisanship we are going to make our Nation more vulnerable by not funding DHS?    Mr. Chairman, I hope not. We have significant challenges before us. You have outlined in your testimony those challenges, but if we don't have a fully-funded Department, one that can't operate on continuing resolution, we put this country, its people, at risk. So whatever it takes for us to deal with this threat, first of all, we have a Department that has the resources to address the threat.    So I look forward to the testimony of our witnesses. But I also look forward to an effort where we can get the Department of Homeland Security treated like every other department of Government, having a budget that carries us until the end of the fiscal year.    With that, I yield back.</t>
   </si>
   <si>
@@ -79,18 +73,12 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Taylor</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Taylor. Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee, I am pleased to be here today with my colleagues from the FBI and NCTC to discuss the foreign fighter threat and our current efforts to disrupt terrorist travel.    I would be remiss if I did not highlight one of the biggest threats to the security of our homeland, the lack of funding for the Department of Homeland Security.    Given the myriad of threats facing the homeland, it is imperative that Congress pass a full-year DHS appropriations bill for 2015. As long as the Department operates under a CR, there are a whole series of activities vital to homeland security and public safety that the Department just cannot do. The men and women of DHS need a partner in Congress to fund their efforts. Time is running out, and I urge Congress to pass a full-year appropriations bill for this Department as soon as possible.    The foreign fighter threat continues to be a security threat to the United States and our allies. Events in Australia, Canada, and most recently in France and Belgium underscore that the foreign fighter threat is no longer a problem restricted to foreign conflict zones, such as northern Syria and western Iraq.    At present, we are unaware of any specific, credible, or imminent threat to the homeland. However, recent events have demonstrated the need for increased vigilance, both at home and abroad. That said, the foreign fighter threat is constantly evolving as well as developing new tactics in recruitment that we have not previously seen before.    The Islamic State of Iraq and Levant, commonly referred to as ISIL, exhibits a very sophisticated propaganda capability. ISIL's use of multi-media content has enhanced the appeal of its terrorist organization. This propaganda encourages supporters to carry out attacks, and such attacks could be conducted without specific direction from ISIL with little or no warning.    To address this very threat, counter violence extremism in the homeland, and to guard against the domestic lone offender, Secretary Johnson has directed the DHS to build on our partnerships with our State, local, and local law enforcement partners in ways that enhance its community relationships and builds resilience to violent extremism.    The Secretary recently appointed a CVE coordinator to oversee the various CVE programs and efforts across our Department. Additionally, since September 2014, Secretary Johnson has personally participated in direct engagement efforts with critical stakeholders in Chicago, Columbus, Ohio, Minneapolis, Los Angeles, and Boston to discuss how DHS can best support local efforts to counter violent extremism and address the foreign terrorist fighters.    DHS CVE efforts are designed to share information with communities and local officials, to raise vigilance on behavioral indicators that may link to radicalization to violence. The DHS program also focuses on empowering communities and local law enforcement to develop intervention and prevention efforts at the local level.    The White House plans to host a CVE summit on February 18, 2015. It will focus on both domestic and international CVE efforts. Prior to the summit, DHS will host an event for domestic stakeholders on February 17 at the White House, while a second affiliated event, specifically for international partners, will be hosted by the Department of State on February 19.    Let me now turn to the specific efforts DHS is undertaking to identify, address, and minimize the foreign fighter threat to the United States and to our allies. Beginning in July 2014, DHS required enhanced screening at selected overseas airports with direct flights to the United States. Weeks later, DHS added additional airports to this list with the United Kingdom and other countries following similar enhancements to their required aviation security operations.    TSA, as directed by Secretary Johnson is also conducting an immediate short-term review to determine if additional security screening measures are necessary at both domestic, and overseas, last-point-of-departure airports. DHS is also exploring the possibility of expanding PRE--pre-clearance operation at foreign airports with flights to the United States.    Currently, CBP has pre-clearance operations at 15 airports in six countries, and, where appropriate, CBP intends to enter into negotiations to expand air pre-clearance operations at new locations. The Department continues to work closely with our European partners through the U.S.-E.U. Passenger Name Records Agreement to transfer passenger name records information to DHS by airlines that are subject to the E.U. data protection laws.    In addition, DHS uses close partnerships with countries in the Visa Waiver program and the five-country ministerial to improve respective abilities to identify illicit travel. Just this past November, the Secretary increased the data fields that are collected from Visa Waiver countries where visas are not required for entry into the United States, and to provide additional passport data, contact information, and other potential names or aliases in the travel application submitted under the electronic system for travel authorization before they can travel to the United States.    DHS is increasing efforts to track those who enter and leave Syria and may later seek to travel to the United States without a State Department-issued visa. The terrorist threat is dynamic, and those who operate individually as a part of terrorist organizations will continue to challenge our security measures and our safety.    Mr. Chairman, I would like to end my statement there, and I look forward to the questions from the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman McCaul. I thank the Secretary. Excuse me. The Chairman now recognizes Director Rasmussen for his opening statement.</t>
   </si>
   <si>
-    <t>Rasmussen</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rasmussen. Thank you, Chairman McCaul, Ranking Member Thompson and Members of the committee. I really do appreciate the opportunity to be here today to discuss the threat posed by foreign fighters and home-grown terror and our efforts as a Government to counter it.    As Frank Taylor said, I am also pleased to join my colleagues and close partners from Homeland Security and the Federal Bureau of Investigation. We work closely and cooperatively every day as a part of a true community of counterterrorism professionals, and I am really grateful for that partnership that we share.    This morning, I will briefly describe the threat we face from foreign fighters, highlight the role that extremist use of social media has played in that process, and conclude with efforts NCTC and our partners across the Federal Government are taking to counter that threat. I will begin with the foreign fighter picture.    As you know, one of the most pressing concerns for the intelligence community is the on-going flow of foreign fighters to Syria, and importantly, the threat they could pose upon return to their home country of home origin. The battlefields in Iraq and Syria clearly provide foreign fighters with combat experience, with training in weapons and explosives, and with access to terror networks that may be ultimately planning targets--attacks which target the West.    The rate of foreign fighter travel that we have seen in recent years is unprecedented. It exceeds the rate of travel and travelers who went to Afghanistan, Pakistan, Iraq, Yemen, or Somalia, other prominent conflict zones, but it exceeds the rate of travel to those conflict zones that we have seen at any point in the last 20 years.    The United States and our allies are increasingly concerned with the more than 20,000 foreign fighters we assess have traveled to Syria from over 90 different countries of origin. We assess that at least 3,400 of these fighters are from Western countries, and that number includes also over 150 U.S. persons who have either traveled to the conflict zone, or attempted to do so. That is something we can speak about in more detail later in the session.    I want to be cautious here about that because it is very difficult to be precise with these numbers, because they come from a wide variety of sources that vary in quality. I would rather focus on the trend lines, which are clear, and which are concerning.    In addition to the foreign fighters who have already traveled, it is clear that the number of those seeking to go to Iraq and Syria is going up. Furthermore, the majority of those who are getting there, getting to the conflict zone right now, are fighting, or looking to fight for ISIL on the battlefield in Syria and Iraq.    It is also a complicating factor that the individuals drawn to fight in foreign conflict zones do not fit any one stereotype or profile. They come from various backgrounds, which highlights the need for comprehensive messaging strategies and early engagement with a variety of communities in order to dissuade vulnerable individuals from trying to travel to conflict zones. The volume and diversity of recruits flowing to and from the conflict makes disruption particularly challenging.    There is no single pipeline for foreign fighter travel into and out of Syria. Violent extremists take different routes, including land, air, and sea. Most routes do involve transit through Turkey because of its geographic proximity to the Syrian border areas where most of these groups operate.    Now this sense of shared threat has prompted even closer cooperation across U.S. Federal agencies, and importantly, with our international partners, particularly in Europe. This is resulting in the development of stricter counterterrorism laws overseas, increased efforts at border security among our European partners, and importantly, more willingness to share threat information among partner nations.    While these good efforts are under way and are making progress, significant work remains, particularly in ensuring that our foreign partners are able and willing to identify and stop foreign fighters when they transit their borders, both to prevent those fighters from entering, and then to stop fighters from leaving their home countries to travel abroad.    Now, I will turn quickly to the use of social media by extremists, and especially by ISIL, and the way in which this group uses social media to attract a diverse set of aspiring foreign fighters.    Now, the Chairman and the Ranking Member both mentioned in their opening remarks the brutal behavior that we have seen of ISIL in recent weeks. The world witnessed the brutal burning of a Jordanian pilot held hostage by the group, and we have seen the cruel beheadings of U.S. and Japanese hostages.    ISIL's media capabilities are robust and effective. Moreover, their ability to generate timely propaganda continues to grow. I would argue that ISIL has proven far more adept than core al-Qaeda ever was, or more adept than any of--core--of al-Qaeda's affiliate groups, more adept at using these new social media tools to reach a broader audience.    Just since January 1 of this year, more than 250 official ISIL products have been published on-line, and the group has shown the capacity to use these products to speak to a full spectrum of potential audiences. Local Sunni Arab populations inside Iraq and Syria, who they are trying to co-opt and exercise dominion over, individuals in coalition countries, and even populations around the world, including English-speaking audiences here and across the globe.    As you would expect, ISIL uses the most popular of social media platforms to disseminate this messaging. YouTube, Facebook, Twitter. They know how to ensure that once their media releases are posted, that they reach far and wide almost instantaneously with reposting, and regeneration of follow-on links and translations into an ever-growing number of additional languages.    Now, in terms of content, we have all seen that it includes these horrible, horrific images in which hostages have been murdered or ISIL's adversaries on the battlefield have been executed in summary fashion. But we have also seen social media images of a bucolic family-friendly welcoming light under ISIL's rule in their self-declared caliphate as ISIL tries to paint a picture to entice disenfranchised individuals seeking ideological, religious, or personal fulfillment, and not just a battlefield or a martyrdom experience.    ISIL also generates releases that cater to a younger population very familiar with popular culture. These releases often reference Western branding, including popular video games, in an attempt to appeal to thrill seekers and youth looking for fulfillment.    Now, the threat we face is not just from foreign fighters or terrorist groups including ISIL and al-Qaeda. Individuals inspired by these and other groups, or simply by violent, extremist propaganda can be motivated to action, and, as Frank said, that can come with little or no warning.    Many of these so-called home-grown violent extremists are lone actors who can potentially operate undetected and who can plan and execute a simple attack without providing us warning. As a community, we closely monitor violent extremist activity, including when that activity appears and occurs in the United States, and we are looking for signs that last year's attacks in Canada and elsewhere may embolden other HBEs to conduct additional attacks.    We believe ISIL's rhetoric may have played a role in these attacks, particularly in target selection in terms of targeting Government officials or military personnel. We are working with our partners across multiple disciplines in the community to increase our knowledge of foreign fighters and to counter extremism.    NCTC has taken a broad center-wide effort to track foreign fighters traveling to Syria. We work in the first instance to resolve the specific identities of these potential fighters to uncover any potential derogatory information that we have in intelligence community holdings.    We are also working closely with foreign partners to combat threats emanating from Syria. We are looking hard to develop investigative leads for our partner agencies to pursue, including identifying foreign fighters entering Syria, who may have potential access or connections to individuals in the homeland so that they can be watch-listed.    The growing number of individuals going abroad as foreign fighters only emphasizes the importance of prevention. Any hope of enduring security or defeating organizations like ISIL rests in our ability to diminish their appeal and to dissuade individuals from joining them in the first place. To this end, we continue to refine and expand the preventive side of terrorism and counterterrorism.    We have seen a steady proliferation of more pro-active and more engaged community awareness efforts across the United States with the goal of giving communities information and tools they need to identify extremism in their midst, and to do something about it before it manifests in violence.    My organization, NCTC, in direct and daily collaboration with DHS, the Justice Department, and FBI, has led the creation of CVE tools to build community resilience across the country. In working closely with these partners, we are doing this work all across the country, and I would like to point to just one quick example.    You will recall the case last year in which three young teenage girls allegedly attempted to travel from Denver to Syria by way of Frankfurt, Germany, where their travel was disrupted by law enforcement. Now, in the aftermath of that incident, we, working together with DHS--DHS, FBI, and the Department of Justice--sent our officers on multiple occasions to meet and talk to the greater Denver community to raise awareness among community and law enforcement partners about the terrorist recruitment threat.    We developed a briefing, working with our partners, that is now tailored to address the specific effort to identify and recruit foreign fighters for Syria and Iraq. We have received a very strong demand signal for more such outreach from communities like Denver, and we continue to try to expand our toolkit of CVE-related tools.    With our DHS colleagues, we have created and we regularly deliver a community resilience exercise program, a table-top exercise that brings together law enforcement with community leaders to run through a hypothetical scenario and talk about response.    We realize we can't institutionalize a prevention approach without scaling up these efforts, and that goes to something you said in your opening statement, Chairman McCaul. So we are working as a community to try to create more programs to train individuals on CVE tools to ensure that communities across the country are able to lead CVE approaches locally in their own communities. This approach syncs up nicely with the efforts of the White House, NCTC, DHS, DOJ, and FBI to facilitate the local development and implementation of intervention frameworks in cities all across the country.    I will stop there, Mr. Chairman----</t>
   </si>
   <si>
@@ -112,9 +100,6 @@
     <t xml:space="preserve">    Chairman McCaul. Mr. Steinbach.</t>
   </si>
   <si>
-    <t>Steinbach</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Steinbach. So certainly, I would not be truthful if I told you that we knew about all the returnees. We--like Nick said, we know what we know. There is a number that we don't know about.    The ones we know about, the numbers of foreign fighters that have returned from Syria, from the conflict zone, every single one of those is a predicated FBI investigation run on the Joint Terrorism Task Force. Regardless of the intelligence or the information that we started with, we go to build the case to disrupt, whether that disruption is in the form of deportation or whether that disruption is in the form of prosecution.    Every single one of those known foreign fighters is an FBI investigation, and we seek to determine the root cause of their travel, what they did in Syria, and then ultimately, if it was in support of a foreign terrorist organization such as ISIL, we look for prosecution or some other disruption.</t>
   </si>
   <si>
@@ -211,18 +196,12 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I will yield my time to my colleague from Texas, Mr. Hurd.</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
-    <t>Will Hurd</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hurd. I would like to thank the gentleman from Texas and you here today. I appreciate you all coming here.    I know the difficulty of the task that you all are charged with having spent 9 years as an undercover officer in the CIA, chasing al-Qaeda and the Taliban and places like that--organizations like that. I know the difficulty and--I know that the people in your--the men and women in your organizations are operating as if it is September 12, 2001. Please, when you go back to your organizations, thank them for all of their hard work on behalf of us.    When I was in Pakistan, Afghanistan, you know, the bad guys would push their message through night letters. At night, they would drop letters on people's doorsteps. Now, they have social media, and all three of you will have highlighted that in your testimony and in the documents that you submitted.    My question is--is what efforts--who is coordinating the effort to counter that ideology on social media and these other elements? You know, 20 percent of any counter-insurgency is cutting off the head of the snake, 80 percent is addressing the underlying concerns.    Who is leading that? What are you guys doing in each one of your agencies to counter that?</t>
   </si>
   <si>
@@ -256,9 +235,6 @@
     <t>400230</t>
   </si>
   <si>
-    <t>James R. Langevin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman, and I want to thank our witnesses for your testimony today.    I would like to turn to the discussion that we have been involved with this morning about tracking those individuals who have been in the conflict zone in Iraq or Syria fighting with ISIS who have U.S. or Western passports.    It is my understanding that we have, you know, somewhat our arms around being able to track those with U.S. passports, but as we have alluded to this morning, we are talking about maybe on the hundreds, or a hundred or so persons with U.S. passports.    But it could be in the thousands for people with Western passports that are fighting in Syria, many of whom with ISIS, and yet those individuals that could travel potentially then back to European countries and could come to the United States, particularly those from Visa Waiver countries--and what I am hearing, what I have heard in past testimony--that it is very difficult perhaps to track those individuals particularly because there are certain governments particularly in the European Union that are reluctant to share threat information on their citizens due to privacy concerns.    I was just in Munich this past weekend at the Munich Security Conference, met with Britain's--their Secretary of Defense, and he confirmed that that is a concern not so much for the United Kingdom because their privacy laws are different, and so that kind of information sharing is not--restricted from Great Britain, but more an issue with continental European countries.    So has this been the experience of NCTC? What are we doing to close that gap? Because that is a significant blind spot for us.</t>
   </si>
   <si>
@@ -283,9 +259,6 @@
     <t>412472</t>
   </si>
   <si>
-    <t>Jeff Duncan</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman, for a very timely hearing. I would ask that we schedule a Classified hearing, briefing with some of these intelligence community to get a little different intake--input.</t>
   </si>
   <si>
@@ -325,9 +298,6 @@
     <t>400641</t>
   </si>
   <si>
-    <t>Brian Higgins</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Just on two aspects of this. One is the nature of terrorist attacks has changed profoundly. Al-Qaeda and al-Qaeda in the Arabian Peninsula has relied traditionally on complex plots involving explosions in airliners. Now, in September 2014, an ISIS leader told would-be recruits not to bother coming to Iraq or Syria but to launch attacks in their home countries. ISIS has called for attacks on soft targets in the West by any means available, including using a car to drive at pedestrians.    The other issue is technology. As Mr. Steinbach had said, technology moves faster than legislation, a lot faster. You characterize the FBI as labeling this, you know, ``going dark.'' It is increasingly difficult to monitor the communications within terrorist networks. The proliferation of often encrypted, covert, coded information to prevent unauthorized use, from Skype to gaming forums to other new technology, has made surveillance tremendously technologically demanding, and in some cases, virtually impossible.    Moreover, Apple's latest mobile operating system came with a default encryption, and Google's Android is soon to follow. In these systems, companies do not have access to their customers' passwords, and thus can't capture their messages.    Now from a customer standpoint, from a consumer standpoint, you know, that is a very good thing. But those who are malicious--those--the malignancy of terror--it takes away a major tool that law enforcement uses to thwart terrorist activity in its planning stages.    So, could you comment on that and what it is, if anything, we can be doing? You know, there was a time where publicly-owned telephone companies were all too willing to cooperate with law enforcement agencies for wiretaps and those kinds of things. That is no longer the case, and this poses a major, major challenge to Western law enforcement officials.</t>
   </si>
   <si>
@@ -340,9 +310,6 @@
     <t>412569</t>
   </si>
   <si>
-    <t>Scott Perry</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Mr. Taylor, a man named, a jihadist as I would characterize him, named Abdul Sabah from Florida was allowed back into the country and wandered around here for about 6 months in between visits to Syria. Now, he eventually met his demise on his own hand as a suicide bomber in Syria, but as far as I know, we didn't even know. The United States didn't even know that he made two previous trips. So, this individual is obviously somebody that we would be interested in and poses a threat to our security.    How did we--how did your agency--what did we miss? How did we miss it?</t>
   </si>
   <si>
@@ -421,9 +388,6 @@
     <t>412435</t>
   </si>
   <si>
-    <t>William R. Keating</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. General Taylor, thank you for your service.    I want to go back to your very first remarks that you began this hearing with. You were talking about your concerns with the budget in homeland security. You know, there is a dangerous game of chicken that is going on right now, where in reaction to the President's immigration efforts, the reaction has been to threaten withholding of the very funding that protects our homeland security.    Now, I don't think in the minds of the public they think there will be an absolute cutting of--out those funds, because that would be so radical a reaction. I don't think they think that is feasible. However, my point is, the reaction of going from these stop-gap budgets, continuing resolutions from month to month, backwards and forwards, that presents real limits on what you can do itself.    So, I want you to focus on the fact that, forget about for a second the threat of just the cutting off of those funds. Right now the way you are functioning is a threat to your ability to deal with our security.    Could you talk to that important point, I believe?</t>
   </si>
   <si>
@@ -463,9 +427,6 @@
     <t>412604</t>
   </si>
   <si>
-    <t>Curt Clawson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming, you all, today. I also pass along my best to the folks that work with y'all. They got a real tough job. Democracy is messy on Capitol Hill, and so the circumstances are difficult. So my full respect and appreciation for what y'all do.    When I think about terrorists coming out of a dangerous part of the world like this and what is going on over there, I always think to Turkey. Honorable Mr. Rasmussen, you mentioned it, I think, earlier in your comments. On the one hand, Turkey has a proud history, a secular history. They got how many thousands of terrorists go to the Aegean Sea every year, manufacturing product going out of Ismir back to Europe, and a member of NATO.    So you would think, on the one hand, these folks ought to be motivated to get things under control here with respect to the highway of tourists. On the other hand, I read about hostage exchanges with ISIL. There has been a long history, as you know, of problems with the Kurds. Also, it almost feels like there is ambivalence with respect to the violence on the border--I mean, on the border, with a war going on.    It doesn't feel to me like we can solve this problem over there, and therefore, over here without pinning down where Turkey really is. I don't know where they are. If we can't get an ally who is a member of NATO to help us in the region, I am not sure what we could expect from anybody else.    So I--you know, I am befuddled on where this is going and how we could ever have success without Turkey, and I am really interested in what you have to say about that.</t>
   </si>
   <si>
@@ -496,9 +457,6 @@
     <t>412624</t>
   </si>
   <si>
-    <t>Barry Loudermilk</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    To the witnesses here today, I appreciate you being here. I don't know that when in my lifetime, I have been more concerned about the internal security of America, not just from our safety and security, but our economic security and on several fronts for different reasons.    One of the things that I know that has been spoken about here and at other times is the threat of ISIS as not only being what I understand the most well-funded, the best organized terrorist organization possibly in the history, but also their ability to effectively use the internet and social media.    There is one thing to use social media, but those of us engaged in politics, we spend a lot of time studying the effective use of social media. How do you come up and stand out amongst billions of users across the world? It appears that ISIS is doing a very good job. They are effectively marketing to our youth, which is specially concerning to me, especially those that are vulnerable, those are--feel disenfranchised and even using video games, as you have mentioned.    So what are we doing--are we working with internet providers, social media providers to help combat the use of the internet and social media to spread their radical Islamic idealism that I think is a threat to the future? Are we working with those companies, and are they participating?</t>
   </si>
   <si>
@@ -532,9 +490,6 @@
     <t>412506</t>
   </si>
   <si>
-    <t>Donald M. Payne, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman, and to the Ranking Member.    You know, a lot of this discussion today and over the past month or so has been very interesting to me. Here we are, a committee with the responsibility of making sure that the homeland remains safe. But yet and still--everyone talks about making sure that that happens, but there are a group in the Congress that are willing to play politics with this country's security.    You know, politics is part of what we do, but to pick Homeland Security in order to make your point is dangerous. I travel from my district in New Jersey, the 10th Congressional district, which takes in Newark, New Jersey, a tier-one target. Prudential Insurance Company was targeted several years ago, about a decade ago, for an attack.    If you go to Jersey City in my district, where I went on September 12 and saw the smoldering building from across the river--we cannot play games with the funding for this Department because of a policy that you don't agree with in the Executive branch. It makes no sense.    With that--oh, and let me just say, Mr. Chairman, I had come down from my district on the train Monday night, and in the train station there were DHS police officers, and I went over and spoke to them and thanked them for their service and the things they are doing for this country. They asked me to send a message back to Congress, and it was please give us the resources and the funding we need to do this job. Do not cut our legs from under us.    So, we can't continue saying we appreciate their service and work, but yet we will not give them the resources that they need to do the job. So, Under Secretary Taylor, you mentioned that not fully funding the Department of Homeland Security would have a crippling effect on domestic security.    Could you please explain how if the Department of Homeland Security is not provided with the full-year funding, efforts to prevent foreign fighters and their travel would be affected, since that seems to be a great concern on the other side, how not funding the Department will impact that ability?</t>
   </si>
   <si>
@@ -559,9 +514,6 @@
     <t>412649</t>
   </si>
   <si>
-    <t>John Katko</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    Mr. Steinbach, earlier you testified that the FBI did not have a process in place to vet and conduct background checks for Syrian refugees. What tools or capabilities would the FBI need to be able to conduct these checks?</t>
   </si>
   <si>
@@ -637,9 +589,6 @@
     <t>412644</t>
   </si>
   <si>
-    <t>Bonnie Watson Coleman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman and thank you Mr. Thompson. Gentlemen, I am sorry I wasn't here for the beginning of your testimony, but I spent my last night reading it, and I found it fascinating.    So, I want you to know that I am very appreciative of what each of your agencies is doing and attempting to do and identifying in terms of keeping us safe here. How you have expanded your interactions, and your information sharing, and your methodologies, and your creativity with other--places, including foreign countries so that we can all be safe.    That is very important to me. I am particularly struck by Homeland Security and I want to associate myself with Mr. Keating and Mr. Paine's remarks about our responsibility to ensure that as you are the protector of the homeland, that you have the resources necessary to be flexible, to be responsive, to be proactive, to do what you need to do to keep me safe without engaging in the political wranglings of whether or not we should be holding the President's foot to the fire on something that he did because Congress couldn't see fit to do.    But nonetheless, my question is more narrowed, and I think it is similar to Mr. Loudermilk's questioning. I am concerned about growing our terrorists here, taking who we think are everyday young people, having them exposed to the way these radical organizations use the social media and any other recruitment resources, and how--what is it that we can do to sort of cut it off at the pass?    What is it that we should be doing in terms of accessing young students, vulnerable college students? Are there resources that we should be putting in educating and counteracting some of this negative propaganda, this ideology-spewing that is taking place with--how do we help our communities and our families see signs?    Are there any commonalities of the characteristics of people that we have seen that seem to be most vulnerable that are home-grown, that seem most vulnerable to this radicalization? Can you share with me where you think our greatest threat is in terms of the security?    Is it on the Southern Border of the United States and Mexico? Is it some other borders that we are talking about? For someone like me, I consider myself Spongebob. I want to soak up as much information as I can get. I need to have a better understanding of those questions, and whoever is able to answer any part of it, I would be greatly appreciative.</t>
   </si>
   <si>
@@ -661,9 +610,6 @@
     <t>412622</t>
   </si>
   <si>
-    <t>Earl L. "Buddy" Carter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, thank you, gentlemen for being here and thank you for what you do to protect our homeland. We appreciate it very much.    Let me ask you--you know, this is the kind of report that you read through and you are concerned about everything, and not one thing more so than the other. But one of the things that struck me was about the foreign fighter travel. I just want to know what we can do to better control that. From what I understand, we are not using all of our resources. I don't know that the administration has even identified a lead agency to combat this. Is that true?</t>
   </si>
   <si>
@@ -718,9 +664,6 @@
     <t>400199</t>
   </si>
   <si>
-    <t>Sheila Jackson Lee</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman--let me thank the Chairman and the Ranking Member for this very important hearing. Let me state to the witnesses I was delayed because we were holding a crime subcommittee in Judiciary, of which I am the Ranking Member.    This is an extremely important hearing, and it is issued in the backdrop of several worthy comments. The President has now released his AUMF, which is a singular notice to the Congress of the importance of addressing the question of ISIS and the potential of the United States engaging in some form of military action to be able to secure this Nation.    I indicated in remarks earlier today on the floor that the Department of Homeland Security provides a domestic armor, a National armor of security. That is the responsibility of that. For many of us on this committee, we have had the privilege of serving since the horrendous and heinous act of 9/11.    Often, I make the comment, certainly not proudly, that I was on or at Ground Zero during the moments of the extended time of looking for remains. It will always be a potent and striking moment in my life, and I take seriously the responsibilities of this committee.    For that reason, I believe it is crucial that we do not hold hostage this Department. We have actually 7 days to make amends on the funding of the Department of the Homeland Security, and I remind my colleagues that the issue of unaccompanied children or the President's Executive Actions do not pose the kind of heinous threat that we are talking about today.    I frankly think this is an important discussion, and many front-line DHS employees will be, in essence, hindered from their work without the full funding of this committee.    I ask you Mr. Taylor, just a simple question, that in the midst of your jurisdiction and employees that you have under your jurisdiction, without funding for this Department, will some of them not be paid or some of them have to be furloughed, or some issue may come up regarding their service?</t>
   </si>
   <si>
@@ -763,9 +706,6 @@
     <t>412611</t>
   </si>
   <si>
-    <t>Martha McSally</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman, and thank you, gentlemen, for your testimony here and--try and look at you while I am talking here with my colleague in the way.    So I appreciate your work that you have been doing. I was 26 years in the military and worked especially, Director Rasmussen, with your organization, and my last assignment at U.S. Africa Command running current operations there to include our counterterrorism operations.    I am aware you all have been dealing with the foreign fighter issue long before a lot of people are now paying attention to it. But we were watching it even back then, 2007 to 2010, where we had foreign fighters flowing from many places but into areas for al-Shabaab training camps and AQAP and AQIM, North Africa, any of these ungoverned spaces, as you know.    I will say as someone in the military, it caused great frustration as much as what we have been talking about today is mostly on the defense, to your terminology. But in order to address this, it needs to be a comprehensive whole-of-Government approach, for sure. But I sure would prefer to be on the offense primarily, and that includes going after these people that have, you know, decided to become enemy combatants in a generational struggle against us, as well as going after the core ideology.    So at the Unclassified level--I mean, you know this. We watched thousands of foreign fighters graduate from these training camps because, quite frankly, we didn't have the political will to do anything about it on the offense at the time, not thinking it was within our interest or it wasn't a threat to our country. God knows where those thousands of jihadists who graduated from these training camps all over Africa--where they are now. I mean, who knows where they are today?    But we just watched them. We let them go. We did nothing about it. Where we had tremendous opportunity to do some things, we just didn't do it. So we have been focusing on the foreign fighter problem with ISIS, but I do want you to comment on your perspective of the foreign fighter problem in other ungoverned areas that we can't forget about, to include many of them in Africa. I would just like your perspectives on what we are seeing through there.</t>
   </si>
   <si>
@@ -787,9 +727,6 @@
     <t>412617</t>
   </si>
   <si>
-    <t>Norma J. Torres</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much, Mr. Chairman. I apologize to the panel for giving you my back, but unfortunate circumstances of seating arrangements--I would like to go back to the question that was asked by Ranking Member Thompson for you, Under Secretary Taylor. Without a full year funding bill, the Department of Homeland Security cannot award, it was my understanding, $2.6 million, correct? Billion dollars.</t>
   </si>
   <si>
@@ -815,9 +752,6 @@
   </si>
   <si>
     <t>412653</t>
-  </si>
-  <si>
-    <t>John Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Gentlemen, I have very much enjoyed and appreciated your testimony today. As a former terrorism prosecutor and as a former United States attorney, I have had the good fortune to work with each of your agencies before on a number of occasions, and I very much look forward to the opportunity to do so again as a Member of this committee.    Mr. Steinbach, I would like to start with you. Your boss, director of the FBI Jim Comey recently expressed concern about technology companies using encryption methods on mobile devices, specifically in response to an Apple representative's statement that it would no longer be possible to unlock encrypted iPhones and iPads. Director Comey drew an analogy to child kidnappers, and he said, ``The notion that someone would market a closet that could never been opened, even if it involves a case involving a child kidnapper and a court order, to me, that does not make any sense.''    As a former terrorism prosecutor, I share Director Comey's concern and can certainly see how the inability to access encrypted devices would hamper terrorism investigations. So my question is: What is the FBI's plan to deal with this? Have you engaged the technology industry to address these concerns?</t>
@@ -1240,11 +1174,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1266,11 +1198,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1290,13 +1220,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1318,11 +1246,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1344,11 +1270,9 @@
       <c r="F6" t="s">
         <v>11</v>
       </c>
-      <c r="G6" t="s">
-        <v>12</v>
-      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1368,13 +1292,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1396,11 +1318,9 @@
       <c r="F8" t="s">
         <v>11</v>
       </c>
-      <c r="G8" t="s">
-        <v>12</v>
-      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1420,13 +1340,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
-      </c>
-      <c r="G9" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1448,11 +1366,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1472,13 +1388,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1500,11 +1414,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1526,11 +1438,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1550,13 +1460,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1578,11 +1486,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1602,13 +1508,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1630,11 +1534,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1654,13 +1556,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>20</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1682,11 +1582,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1706,13 +1604,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>20</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1734,11 +1630,9 @@
       <c r="F21" t="s">
         <v>11</v>
       </c>
-      <c r="G21" t="s">
-        <v>12</v>
-      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1758,13 +1652,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1786,11 +1678,9 @@
       <c r="F23" t="s">
         <v>11</v>
       </c>
-      <c r="G23" t="s">
-        <v>12</v>
-      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1810,13 +1700,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>20</v>
-      </c>
-      <c r="G24" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1838,11 +1726,9 @@
       <c r="F25" t="s">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
-        <v>12</v>
-      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1862,13 +1748,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1890,11 +1774,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1914,13 +1796,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1940,13 +1820,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1966,13 +1844,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>15</v>
-      </c>
-      <c r="G30" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1992,13 +1868,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -2018,13 +1892,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>15</v>
-      </c>
-      <c r="G32" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -2044,13 +1916,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>20</v>
-      </c>
-      <c r="G33" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -2070,13 +1940,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -2096,13 +1964,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -2122,13 +1988,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>15</v>
-      </c>
-      <c r="G36" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2148,13 +2012,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2174,13 +2036,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>20</v>
-      </c>
-      <c r="G38" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2200,13 +2060,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2226,13 +2084,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>20</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2252,13 +2108,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2278,13 +2132,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>20</v>
-      </c>
-      <c r="G42" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2304,13 +2156,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2330,13 +2180,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>20</v>
-      </c>
-      <c r="G44" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2356,13 +2204,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2384,11 +2230,9 @@
       <c r="F46" t="s">
         <v>11</v>
       </c>
-      <c r="G46" t="s">
-        <v>12</v>
-      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2408,13 +2252,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>64</v>
-      </c>
-      <c r="G47" t="s">
-        <v>65</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2434,13 +2276,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
-      </c>
-      <c r="G48" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2460,13 +2300,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>20</v>
-      </c>
-      <c r="G49" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2486,13 +2324,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2512,13 +2348,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>20</v>
-      </c>
-      <c r="G51" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2538,13 +2372,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>20</v>
-      </c>
-      <c r="G52" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2564,13 +2396,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
+        <v>61</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
         <v>67</v>
-      </c>
-      <c r="G53" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2590,13 +2420,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2616,13 +2444,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2642,13 +2468,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>67</v>
-      </c>
-      <c r="G56" t="s">
-        <v>68</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2670,11 +2494,9 @@
       <c r="F57" t="s">
         <v>11</v>
       </c>
-      <c r="G57" t="s">
-        <v>12</v>
-      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2694,13 +2516,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>79</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2720,13 +2540,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>20</v>
-      </c>
-      <c r="G59" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2746,13 +2564,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2772,13 +2588,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>20</v>
-      </c>
-      <c r="G61" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2798,13 +2612,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>20</v>
-      </c>
-      <c r="G62" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2824,13 +2636,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>79</v>
-      </c>
-      <c r="G63" t="s">
-        <v>80</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2852,11 +2662,9 @@
       <c r="F64" t="s">
         <v>11</v>
       </c>
-      <c r="G64" t="s">
-        <v>12</v>
-      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2876,13 +2684,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>88</v>
-      </c>
-      <c r="G65" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2904,11 +2710,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2928,13 +2732,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2954,13 +2756,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>20</v>
-      </c>
-      <c r="G68" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2980,13 +2780,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -3006,13 +2804,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>20</v>
-      </c>
-      <c r="G70" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -3032,13 +2828,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -3058,13 +2852,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>20</v>
-      </c>
-      <c r="G72" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -3084,13 +2876,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>89</v>
-      </c>
-      <c r="H73" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -3110,13 +2900,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>20</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -3136,13 +2924,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -3164,11 +2950,9 @@
       <c r="F76" t="s">
         <v>11</v>
       </c>
-      <c r="G76" t="s">
-        <v>12</v>
-      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3188,13 +2972,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G77" t="s">
-        <v>103</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3214,13 +2996,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>20</v>
-      </c>
-      <c r="G78" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3242,11 +3022,9 @@
       <c r="F79" t="s">
         <v>11</v>
       </c>
-      <c r="G79" t="s">
-        <v>12</v>
-      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3266,13 +3044,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
-      </c>
-      <c r="G80" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3292,13 +3068,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>20</v>
-      </c>
-      <c r="G81" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3318,13 +3092,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
-      </c>
-      <c r="G82" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3344,13 +3116,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>20</v>
-      </c>
-      <c r="G83" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3370,13 +3140,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
-      </c>
-      <c r="G84" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3396,13 +3164,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G85" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3422,13 +3188,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
-      </c>
-      <c r="G86" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3448,13 +3212,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>20</v>
-      </c>
-      <c r="G87" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3474,13 +3236,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
-      </c>
-      <c r="G88" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3500,13 +3260,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>20</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3526,13 +3284,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
+        <v>97</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
         <v>107</v>
-      </c>
-      <c r="G90" t="s">
-        <v>108</v>
-      </c>
-      <c r="H90" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3552,13 +3308,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>20</v>
-      </c>
-      <c r="G91" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3578,13 +3332,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
-      </c>
-      <c r="G92" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3604,13 +3356,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>20</v>
-      </c>
-      <c r="G93" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3630,13 +3380,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3656,13 +3404,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>20</v>
-      </c>
-      <c r="G95" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3682,13 +3428,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3708,13 +3452,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>20</v>
-      </c>
-      <c r="G97" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3734,13 +3476,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>107</v>
-      </c>
-      <c r="G98" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3760,13 +3500,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>20</v>
-      </c>
-      <c r="G99" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3786,13 +3524,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>107</v>
-      </c>
-      <c r="G100" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3812,13 +3548,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>20</v>
-      </c>
-      <c r="G101" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3838,13 +3572,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>107</v>
-      </c>
-      <c r="G102" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3864,13 +3596,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>20</v>
-      </c>
-      <c r="G103" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>131</v>
+        <v>120</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3890,13 +3620,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>107</v>
-      </c>
-      <c r="G104" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3918,11 +3646,9 @@
       <c r="F105" t="s">
         <v>11</v>
       </c>
-      <c r="G105" t="s">
-        <v>12</v>
-      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3942,13 +3668,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>134</v>
-      </c>
-      <c r="G106" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3968,13 +3692,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>20</v>
-      </c>
-      <c r="G107" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3994,13 +3716,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>134</v>
-      </c>
-      <c r="G108" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -4020,13 +3740,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>20</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -4046,13 +3764,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>134</v>
-      </c>
-      <c r="G110" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -4072,13 +3788,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>20</v>
-      </c>
-      <c r="G111" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -4098,13 +3812,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>134</v>
-      </c>
-      <c r="G112" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -4124,13 +3836,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>20</v>
-      </c>
-      <c r="G113" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -4150,13 +3860,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>134</v>
-      </c>
-      <c r="G114" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4176,13 +3884,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4202,13 +3908,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
+        <v>123</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>134</v>
-      </c>
-      <c r="G116" t="s">
-        <v>135</v>
-      </c>
-      <c r="H116" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4230,11 +3934,9 @@
       <c r="F117" t="s">
         <v>11</v>
       </c>
-      <c r="G117" t="s">
-        <v>12</v>
-      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4254,13 +3956,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>148</v>
-      </c>
-      <c r="G118" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4280,13 +3980,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>20</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4306,13 +4004,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>148</v>
-      </c>
-      <c r="G120" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4332,13 +4028,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>20</v>
-      </c>
-      <c r="G121" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4358,13 +4052,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>148</v>
-      </c>
-      <c r="G122" t="s">
-        <v>149</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4386,11 +4078,9 @@
       <c r="F123" t="s">
         <v>11</v>
       </c>
-      <c r="G123" t="s">
-        <v>12</v>
-      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4410,13 +4100,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>20</v>
-      </c>
-      <c r="G124" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4436,13 +4124,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>20</v>
-      </c>
-      <c r="G125" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4464,11 +4150,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4488,13 +4172,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>159</v>
-      </c>
-      <c r="G127" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>161</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4514,13 +4196,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>20</v>
-      </c>
-      <c r="G128" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>162</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4540,13 +4220,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>20</v>
-      </c>
-      <c r="G129" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4566,13 +4244,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>159</v>
-      </c>
-      <c r="G130" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>164</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4592,13 +4268,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>20</v>
-      </c>
-      <c r="G131" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4618,13 +4292,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>159</v>
-      </c>
-      <c r="G132" t="s">
-        <v>160</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4644,13 +4316,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>20</v>
-      </c>
-      <c r="G133" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4672,11 +4342,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4696,13 +4364,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>20</v>
-      </c>
-      <c r="G135" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4724,11 +4390,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4748,13 +4412,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>171</v>
-      </c>
-      <c r="G137" t="s">
-        <v>172</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4774,13 +4436,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>20</v>
-      </c>
-      <c r="G138" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4800,13 +4460,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>171</v>
-      </c>
-      <c r="G139" t="s">
-        <v>172</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4826,13 +4484,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>20</v>
-      </c>
-      <c r="G140" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4852,13 +4508,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>171</v>
-      </c>
-      <c r="G141" t="s">
-        <v>172</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4878,13 +4532,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4904,13 +4556,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>171</v>
-      </c>
-      <c r="G143" t="s">
-        <v>172</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4932,11 +4582,9 @@
       <c r="F144" t="s">
         <v>11</v>
       </c>
-      <c r="G144" t="s">
-        <v>12</v>
-      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4956,13 +4604,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>180</v>
-      </c>
-      <c r="G145" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4982,13 +4628,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>20</v>
-      </c>
-      <c r="G146" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -5008,13 +4652,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>180</v>
-      </c>
-      <c r="G147" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -5034,13 +4676,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>20</v>
-      </c>
-      <c r="G148" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -5060,13 +4700,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>180</v>
-      </c>
-      <c r="G149" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -5086,13 +4724,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>20</v>
-      </c>
-      <c r="G150" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -5112,13 +4748,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>180</v>
-      </c>
-      <c r="G151" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -5138,13 +4772,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>20</v>
-      </c>
-      <c r="G152" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5164,13 +4796,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>180</v>
-      </c>
-      <c r="G153" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5190,13 +4820,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>20</v>
-      </c>
-      <c r="G154" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5216,13 +4844,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>180</v>
-      </c>
-      <c r="G155" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5242,13 +4868,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>20</v>
-      </c>
-      <c r="G156" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5268,13 +4892,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>180</v>
-      </c>
-      <c r="G157" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5294,13 +4916,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>20</v>
-      </c>
-      <c r="G158" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5320,13 +4940,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5346,13 +4964,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>20</v>
-      </c>
-      <c r="G160" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5372,13 +4988,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>180</v>
-      </c>
-      <c r="G161" t="s">
+        <v>165</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
         <v>181</v>
-      </c>
-      <c r="H161" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5398,13 +5012,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>20</v>
-      </c>
-      <c r="G162" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5424,13 +5036,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>180</v>
-      </c>
-      <c r="G163" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5450,13 +5060,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>20</v>
-      </c>
-      <c r="G164" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5476,13 +5084,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>180</v>
-      </c>
-      <c r="G165" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5502,13 +5108,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>20</v>
-      </c>
-      <c r="G166" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5528,13 +5132,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>180</v>
-      </c>
-      <c r="G167" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5554,13 +5156,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>20</v>
-      </c>
-      <c r="G168" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5580,13 +5180,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>180</v>
-      </c>
-      <c r="G169" t="s">
-        <v>181</v>
-      </c>
+        <v>165</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5608,11 +5206,9 @@
       <c r="F170" t="s">
         <v>11</v>
       </c>
-      <c r="G170" t="s">
-        <v>12</v>
-      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5632,13 +5228,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>206</v>
-      </c>
-      <c r="G171" t="s">
-        <v>207</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5658,13 +5252,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>20</v>
-      </c>
-      <c r="G172" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5684,13 +5276,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>20</v>
-      </c>
-      <c r="G173" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5712,11 +5302,9 @@
       <c r="F174" t="s">
         <v>11</v>
       </c>
-      <c r="G174" t="s">
-        <v>12</v>
-      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5736,13 +5324,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>206</v>
-      </c>
-      <c r="G175" t="s">
-        <v>207</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5764,11 +5350,9 @@
       <c r="F176" t="s">
         <v>11</v>
       </c>
-      <c r="G176" t="s">
-        <v>12</v>
-      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5788,13 +5372,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>214</v>
-      </c>
-      <c r="G177" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5814,13 +5396,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>20</v>
-      </c>
-      <c r="G178" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5840,13 +5420,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>214</v>
-      </c>
-      <c r="G179" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5866,13 +5444,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>20</v>
-      </c>
-      <c r="G180" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5892,13 +5468,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>214</v>
-      </c>
-      <c r="G181" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5918,13 +5492,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>20</v>
-      </c>
-      <c r="G182" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5944,13 +5516,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>214</v>
-      </c>
-      <c r="G183" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5970,13 +5540,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>20</v>
-      </c>
-      <c r="G184" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5996,13 +5564,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>214</v>
-      </c>
-      <c r="G185" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -6022,13 +5588,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>20</v>
-      </c>
-      <c r="G186" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -6048,13 +5612,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>214</v>
-      </c>
-      <c r="G187" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -6074,13 +5636,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>20</v>
-      </c>
-      <c r="G188" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -6100,13 +5660,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>214</v>
-      </c>
-      <c r="G189" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -6126,13 +5684,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>20</v>
-      </c>
-      <c r="G190" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -6152,13 +5708,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>214</v>
-      </c>
-      <c r="G191" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6178,13 +5732,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>20</v>
-      </c>
-      <c r="G192" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6204,13 +5756,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>214</v>
-      </c>
-      <c r="G193" t="s">
-        <v>215</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6232,11 +5782,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6256,13 +5804,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>233</v>
-      </c>
-      <c r="G195" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6282,13 +5828,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>20</v>
-      </c>
-      <c r="G196" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>236</v>
+        <v>217</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6308,13 +5852,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>233</v>
-      </c>
-      <c r="G197" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>237</v>
+        <v>218</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6334,13 +5876,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>20</v>
-      </c>
-      <c r="G198" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>238</v>
+        <v>219</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6360,13 +5900,11 @@
         <v>10</v>
       </c>
       <c r="F199" t="s">
-        <v>233</v>
-      </c>
-      <c r="G199" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>239</v>
+        <v>220</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6386,13 +5924,11 @@
         <v>10</v>
       </c>
       <c r="F200" t="s">
-        <v>20</v>
-      </c>
-      <c r="G200" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G200" t="s"/>
       <c r="H200" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -6412,13 +5948,11 @@
         <v>10</v>
       </c>
       <c r="F201" t="s">
-        <v>233</v>
-      </c>
-      <c r="G201" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G201" t="s"/>
       <c r="H201" t="s">
-        <v>240</v>
+        <v>221</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -6438,13 +5972,11 @@
         <v>10</v>
       </c>
       <c r="F202" t="s">
-        <v>20</v>
-      </c>
-      <c r="G202" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G202" t="s"/>
       <c r="H202" t="s">
-        <v>241</v>
+        <v>222</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -6464,13 +5996,11 @@
         <v>10</v>
       </c>
       <c r="F203" t="s">
-        <v>233</v>
-      </c>
-      <c r="G203" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G203" t="s"/>
       <c r="H203" t="s">
-        <v>242</v>
+        <v>223</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -6490,13 +6020,11 @@
         <v>10</v>
       </c>
       <c r="F204" t="s">
-        <v>20</v>
-      </c>
-      <c r="G204" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G204" t="s"/>
       <c r="H204" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -6516,13 +6044,11 @@
         <v>10</v>
       </c>
       <c r="F205" t="s">
-        <v>233</v>
-      </c>
-      <c r="G205" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G205" t="s"/>
       <c r="H205" t="s">
-        <v>243</v>
+        <v>224</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -6542,13 +6068,11 @@
         <v>10</v>
       </c>
       <c r="F206" t="s">
-        <v>20</v>
-      </c>
-      <c r="G206" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G206" t="s"/>
       <c r="H206" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -6568,13 +6092,11 @@
         <v>10</v>
       </c>
       <c r="F207" t="s">
-        <v>233</v>
-      </c>
-      <c r="G207" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G207" t="s"/>
       <c r="H207" t="s">
-        <v>244</v>
+        <v>225</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -6594,13 +6116,11 @@
         <v>10</v>
       </c>
       <c r="F208" t="s">
-        <v>20</v>
-      </c>
-      <c r="G208" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G208" t="s"/>
       <c r="H208" t="s">
-        <v>245</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -6620,13 +6140,11 @@
         <v>10</v>
       </c>
       <c r="F209" t="s">
-        <v>233</v>
-      </c>
-      <c r="G209" t="s">
-        <v>234</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="G209" t="s"/>
       <c r="H209" t="s">
-        <v>246</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -6648,11 +6166,9 @@
       <c r="F210" t="s">
         <v>11</v>
       </c>
-      <c r="G210" t="s">
-        <v>12</v>
-      </c>
+      <c r="G210" t="s"/>
       <c r="H210" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -6672,13 +6188,11 @@
         <v>10</v>
       </c>
       <c r="F211" t="s">
-        <v>248</v>
-      </c>
-      <c r="G211" t="s">
-        <v>249</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G211" t="s"/>
       <c r="H211" t="s">
-        <v>250</v>
+        <v>230</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6698,13 +6212,11 @@
         <v>10</v>
       </c>
       <c r="F212" t="s">
-        <v>20</v>
-      </c>
-      <c r="G212" t="s">
-        <v>24</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G212" t="s"/>
       <c r="H212" t="s">
-        <v>251</v>
+        <v>231</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -6724,13 +6236,11 @@
         <v>10</v>
       </c>
       <c r="F213" t="s">
-        <v>248</v>
-      </c>
-      <c r="G213" t="s">
-        <v>249</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G213" t="s"/>
       <c r="H213" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -6750,13 +6260,11 @@
         <v>10</v>
       </c>
       <c r="F214" t="s">
-        <v>20</v>
-      </c>
-      <c r="G214" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G214" t="s"/>
       <c r="H214" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -6776,13 +6284,11 @@
         <v>10</v>
       </c>
       <c r="F215" t="s">
-        <v>248</v>
-      </c>
-      <c r="G215" t="s">
-        <v>249</v>
-      </c>
+        <v>229</v>
+      </c>
+      <c r="G215" t="s"/>
       <c r="H215" t="s">
-        <v>254</v>
+        <v>234</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6804,11 +6310,9 @@
       <c r="F216" t="s">
         <v>11</v>
       </c>
-      <c r="G216" t="s">
-        <v>12</v>
-      </c>
+      <c r="G216" t="s"/>
       <c r="H216" t="s">
-        <v>255</v>
+        <v>235</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6828,13 +6332,11 @@
         <v>10</v>
       </c>
       <c r="F217" t="s">
-        <v>256</v>
-      </c>
-      <c r="G217" t="s">
-        <v>257</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G217" t="s"/>
       <c r="H217" t="s">
-        <v>258</v>
+        <v>237</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6854,13 +6356,11 @@
         <v>10</v>
       </c>
       <c r="F218" t="s">
-        <v>20</v>
-      </c>
-      <c r="G218" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G218" t="s"/>
       <c r="H218" t="s">
-        <v>259</v>
+        <v>238</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6880,13 +6380,11 @@
         <v>10</v>
       </c>
       <c r="F219" t="s">
-        <v>256</v>
-      </c>
-      <c r="G219" t="s">
-        <v>257</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G219" t="s"/>
       <c r="H219" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6906,13 +6404,11 @@
         <v>10</v>
       </c>
       <c r="F220" t="s">
-        <v>20</v>
-      </c>
-      <c r="G220" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G220" t="s"/>
       <c r="H220" t="s">
-        <v>261</v>
+        <v>240</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6932,13 +6428,11 @@
         <v>10</v>
       </c>
       <c r="F221" t="s">
-        <v>256</v>
-      </c>
-      <c r="G221" t="s">
-        <v>257</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G221" t="s"/>
       <c r="H221" t="s">
-        <v>262</v>
+        <v>241</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6958,13 +6452,11 @@
         <v>10</v>
       </c>
       <c r="F222" t="s">
-        <v>20</v>
-      </c>
-      <c r="G222" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G222" t="s"/>
       <c r="H222" t="s">
-        <v>263</v>
+        <v>242</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6984,13 +6476,11 @@
         <v>10</v>
       </c>
       <c r="F223" t="s">
-        <v>256</v>
-      </c>
-      <c r="G223" t="s">
-        <v>257</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="G223" t="s"/>
       <c r="H223" t="s">
-        <v>264</v>
+        <v>243</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -7012,11 +6502,9 @@
       <c r="F224" t="s">
         <v>11</v>
       </c>
-      <c r="G224" t="s">
-        <v>12</v>
-      </c>
+      <c r="G224" t="s"/>
       <c r="H224" t="s">
-        <v>265</v>
+        <v>244</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -7036,13 +6524,11 @@
         <v>10</v>
       </c>
       <c r="F225" t="s">
-        <v>266</v>
-      </c>
-      <c r="G225" t="s">
-        <v>267</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="G225" t="s"/>
       <c r="H225" t="s">
-        <v>268</v>
+        <v>246</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -7062,13 +6548,11 @@
         <v>10</v>
       </c>
       <c r="F226" t="s">
-        <v>20</v>
-      </c>
-      <c r="G226" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G226" t="s"/>
       <c r="H226" t="s">
-        <v>269</v>
+        <v>247</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -7088,13 +6572,11 @@
         <v>10</v>
       </c>
       <c r="F227" t="s">
-        <v>266</v>
-      </c>
-      <c r="G227" t="s">
-        <v>267</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="G227" t="s"/>
       <c r="H227" t="s">
-        <v>270</v>
+        <v>248</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -7114,13 +6596,11 @@
         <v>10</v>
       </c>
       <c r="F228" t="s">
-        <v>20</v>
-      </c>
-      <c r="G228" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G228" t="s"/>
       <c r="H228" t="s">
-        <v>271</v>
+        <v>249</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7140,13 +6620,11 @@
         <v>10</v>
       </c>
       <c r="F229" t="s">
-        <v>266</v>
-      </c>
-      <c r="G229" t="s">
-        <v>267</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="G229" t="s"/>
       <c r="H229" t="s">
-        <v>272</v>
+        <v>250</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7166,13 +6644,11 @@
         <v>10</v>
       </c>
       <c r="F230" t="s">
-        <v>20</v>
-      </c>
-      <c r="G230" t="s">
-        <v>32</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="G230" t="s"/>
       <c r="H230" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -7192,13 +6668,11 @@
         <v>10</v>
       </c>
       <c r="F231" t="s">
-        <v>266</v>
-      </c>
-      <c r="G231" t="s">
-        <v>267</v>
-      </c>
+        <v>245</v>
+      </c>
+      <c r="G231" t="s"/>
       <c r="H231" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -7220,11 +6694,9 @@
       <c r="F232" t="s">
         <v>11</v>
       </c>
-      <c r="G232" t="s">
-        <v>12</v>
-      </c>
+      <c r="G232" t="s"/>
       <c r="H232" t="s">
-        <v>275</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg94106.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg94106.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>400654</t>
   </si>
   <si>
+    <t>McCaul</t>
+  </si>
+  <si>
+    <t>Michael</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman McCaul. The Committee on Homeland Security will come to order. The committee is meeting today to hear testimony on violent Islamist extremism and the threat of foreign fighters and home-grown terror. I now recognize myself for an opening statement.    Today, at the first hearing of the House Committee on Homeland Security in the 114th Congress, I would like to take a moment of silence to remember all those who lost their lives at the hands of ISIS, especially Americans James Foley, Steven Sotloff, and most recently, Kayla Mueller.    These victims are the reason why we are here today. We must keep these barbaric terrorists out of the homeland to protect the American people. This hearing will also assess the urgent and growing threat of terrorist recruiting and inspiring Americans. We need to accurately define the threat, and that is violent Islamist extremism, and recognize that it is spreading like wildfire around the globe.    These fanatics want nothing less than destruction of our way of life, and now their ability to match words with deeds is growing at an astonishing rate. In recent years, their safe havens have proliferated and their ranks have swelled.    In many ways, we are no longer talking about terrorist groups. We are talking about terrorist armies. ISIS now controls a territory the size of Belgium, governs millions of people, draws on billions of dollars in revenue and commands tens of thousands of foot soldiers.    They are brutal. Their latest act of barbarism was on full display with a horrific murder of a Jordanian pilot. This evolving Islamic terrorist landscape has given rise to the dual threats of foreign fighters returning to the United States and home-grown terrorism. The recent terror attack in Paris and other attacks and plots in Belgium, Germany, the United Kingdom, Australia, Canada, and here in the United States are proof that the threat has surged and that the enemy is dead-set on attacking the West.    This map behind me shows a wide-spread surge in ISIS-linked terrorist plots over the last year alone. As Mr. Rasmussen notes in his testimony, more than 20,000 fighters from over 90 countries have made their way to the battlefield to join al-Qaeda, ISIS, and other extremist groups, making this the largest convergence of Islamist terrorists in world history.    That number continues to grow despite months of air strikes. Up to 5,000 of these fighters are Westerners, many of whom are able to travel into the United States without obtaining a visa. And more than 150 American citizens have attempted to or succeeded in getting to the battlefield, and we know that some of them have already returned to our shores. You can see this flow depicted in the graphic behind me.    But extremists do not need to travel overseas in order to become a threat to our homeland. Through Hollywood-like propaganda videos and social media and through that means, Islamist terror groups are inciting their followers and potential recruits to wage war at home.    Both ISIS, and Yemen-based al-Qaeda in the Arabian Peninsula have called for Westerners, including Americans, to wage individual jihad in their home countries, and it is working. ISIS social media also gives step-by-step instructions on how to get to the fight and how to return.    Following the attacks in Paris last month, our European partners have been busy uncovering new terrorist cells and disrupting imminent plots. Also, just recently here at home, the FBI arrested an Ohio-based ISIS sympathizer who was intending to attack the United States Capitol with pipe bombs.    I am worried about our ability to combat this threat abroad, but also here at home. I wrote to the President recently and raised concerns that we still have no lead agency in charge of countering domestic radicalization and no line item for it in the budgets of key departments and agencies.    I am also concerned that the few programs we do have in place are far too small to confront a threat that has grown so quickly.    Today, I hope to hear how the administration assesses the danger posed by foreign fighters, particularly Westerners, and the threat of home-grown terrorism here in the United States. More importantly, I hope we will hear about how the administration is responding and how it plans to ramp up its response to those challenges.    This morning, I would like to welcome all of our witnesses, but especially Mr. Rasmussen with the National Counterterrorism Center, in his first appearance before Congress after being confirmed as director, and we look forward to his testimony.    As part of our committee's focus on this critical National security issue, the Ranking Member and myself are establishing a task force on combating terrorist and foreign fighter travel. The 6-month task force will review U.S. Government efforts, focusing on DHS, to disrupt terrorist travel into our country and to combat the foreign fighter threat. It will ultimately provide recommendations to the committee on how we can improve U.S. security against these dangers.    I must say I am very disappointed that the State Department chose not to send a witness here today. The threats we are discussing are serious, and the State Department plays a key role in combating them.    I recently sent a letter to the White House expressing my concerns over the Department's desire to resettle tens of thousands of Syrian refugees here in the United States. I am worried that ISIS could exploit this effort in order to deploy operatives to America via a Federally-funded jihadi pipeline.    Before closing, I would like to again reiterate what I said at our organizational meeting last month. Mr. Thompson, we look forward to working with you to accomplish our shared goal of protecting the homeland.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400402</t>
   </si>
   <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Bennie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Thompson. Thank you, Mr. Chairman, for your comments, as well as for holding today's hearing.    I would like to also welcome Director Rasmussen for his first appearance before this committee as the director of the National Counterterrorism Center. As well, I would also thank the rest of the panel for testifying about the Federal Government's effort to identify and deter foreign fighters and the Government's efforts to counter violent extremism.    I would like to express my condolences at the beginning to the family of the 26-year-old Kayla Mueller, an American aid worker who was taken hostage by the Islamic State of Iraq. U.S. officials have confirmed she was killed by the terrorist group. Mr. Chairman, Ms. Mueller's death and other recent terrorist attacks across the world over the past few months have magnified the nature of the evolving threat from the terrorist groups and state actors. The heinous actions by ISIL, including the beheading of a Japanese journalist and the terrorist group's burning of a Jordanian pilot further illustrates the abhorrent nature of this terrorist group.    Last month, the Chairman of the Joint Chiefs of Staff indicated that the radical ideology of ISIL is causing other terrorist groups to rebrand themselves and emulate ISIL.    Top U.S. officials have made public statements that foreign fighters linked to ISIL may pose a direct threat to this country. Moreover, those inspired by the ideology of ISIL, al-Qaeda, and other groups are of concern.    As we look to these threats, we cannot take a myopic view. Each attack from terrorist groups have reemphasized the global reach of terrorist activity. For instance, there was a crippling cyber attack in November on Sony Pictures Entertainment Network. In December, in Sydney, Australia, we witnessed a terrorist attack on a cafe, where at the end of a 16-hour stand-off, two innocent people lay dead.    Then in January in Paris, there was a series of execution-style murders of 12 members Charlie Hebdo's creative team. Al-Qaeda in the Arabian Peninsula has taken credit for this attack.    This serves as a reminder that the terrorist threats we face are evolving quickly. This committee's responsibility is to hold hearings and receive Classified information that lets us know the nature of the threats and how the Federal Government is dealing with the threat.    In spite of this, Mr. Chairman, the Republican majority continues to play political games with funding the Department of Homeland Security. Mr. Chairman, I, too, feel that it is meaningless to have a strategy if the ends are not paired with the means to achieve them. It is my hope that you will make the point to your colleagues and leadership who are holding the funding for a key agency and the Federal Government that Americans look to to detect, deter, and respond to a terrorist hostage situation.    Unfortunately, the Department of Homeland Security is operating under the threat of a shutdown, and it is only funded by a continuing resolution for the next 17 days. It is important that my Republican colleagues act responsibly, stop playing politics, and pass a clean DHS funding bill. Without a fully-funded Department of Homeland Security, some of our key methods of identifying terrorists and preventing terrorist travel will be at risk.    Are we really ready to stand before the American people, those who trust and value that we recognize their needs, and declare for the sake of partisanship we are going to make our Nation more vulnerable by not funding DHS?    Mr. Chairman, I hope not. We have significant challenges before us. You have outlined in your testimony those challenges, but if we don't have a fully-funded Department, one that can't operate on continuing resolution, we put this country, its people, at risk. So whatever it takes for us to deal with this threat, first of all, we have a Department that has the resources to address the threat.    So I look forward to the testimony of our witnesses. But I also look forward to an effort where we can get the Department of Homeland Security treated like every other department of Government, having a budget that carries us until the end of the fiscal year.    With that, I yield back.</t>
   </si>
   <si>
@@ -73,12 +88,18 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Taylor</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Taylor. Chairman McCaul, Ranking Member Thompson, and distinguished Members of the committee, I am pleased to be here today with my colleagues from the FBI and NCTC to discuss the foreign fighter threat and our current efforts to disrupt terrorist travel.    I would be remiss if I did not highlight one of the biggest threats to the security of our homeland, the lack of funding for the Department of Homeland Security.    Given the myriad of threats facing the homeland, it is imperative that Congress pass a full-year DHS appropriations bill for 2015. As long as the Department operates under a CR, there are a whole series of activities vital to homeland security and public safety that the Department just cannot do. The men and women of DHS need a partner in Congress to fund their efforts. Time is running out, and I urge Congress to pass a full-year appropriations bill for this Department as soon as possible.    The foreign fighter threat continues to be a security threat to the United States and our allies. Events in Australia, Canada, and most recently in France and Belgium underscore that the foreign fighter threat is no longer a problem restricted to foreign conflict zones, such as northern Syria and western Iraq.    At present, we are unaware of any specific, credible, or imminent threat to the homeland. However, recent events have demonstrated the need for increased vigilance, both at home and abroad. That said, the foreign fighter threat is constantly evolving as well as developing new tactics in recruitment that we have not previously seen before.    The Islamic State of Iraq and Levant, commonly referred to as ISIL, exhibits a very sophisticated propaganda capability. ISIL's use of multi-media content has enhanced the appeal of its terrorist organization. This propaganda encourages supporters to carry out attacks, and such attacks could be conducted without specific direction from ISIL with little or no warning.    To address this very threat, counter violence extremism in the homeland, and to guard against the domestic lone offender, Secretary Johnson has directed the DHS to build on our partnerships with our State, local, and local law enforcement partners in ways that enhance its community relationships and builds resilience to violent extremism.    The Secretary recently appointed a CVE coordinator to oversee the various CVE programs and efforts across our Department. Additionally, since September 2014, Secretary Johnson has personally participated in direct engagement efforts with critical stakeholders in Chicago, Columbus, Ohio, Minneapolis, Los Angeles, and Boston to discuss how DHS can best support local efforts to counter violent extremism and address the foreign terrorist fighters.    DHS CVE efforts are designed to share information with communities and local officials, to raise vigilance on behavioral indicators that may link to radicalization to violence. The DHS program also focuses on empowering communities and local law enforcement to develop intervention and prevention efforts at the local level.    The White House plans to host a CVE summit on February 18, 2015. It will focus on both domestic and international CVE efforts. Prior to the summit, DHS will host an event for domestic stakeholders on February 17 at the White House, while a second affiliated event, specifically for international partners, will be hosted by the Department of State on February 19.    Let me now turn to the specific efforts DHS is undertaking to identify, address, and minimize the foreign fighter threat to the United States and to our allies. Beginning in July 2014, DHS required enhanced screening at selected overseas airports with direct flights to the United States. Weeks later, DHS added additional airports to this list with the United Kingdom and other countries following similar enhancements to their required aviation security operations.    TSA, as directed by Secretary Johnson is also conducting an immediate short-term review to determine if additional security screening measures are necessary at both domestic, and overseas, last-point-of-departure airports. DHS is also exploring the possibility of expanding PRE--pre-clearance operation at foreign airports with flights to the United States.    Currently, CBP has pre-clearance operations at 15 airports in six countries, and, where appropriate, CBP intends to enter into negotiations to expand air pre-clearance operations at new locations. The Department continues to work closely with our European partners through the U.S.-E.U. Passenger Name Records Agreement to transfer passenger name records information to DHS by airlines that are subject to the E.U. data protection laws.    In addition, DHS uses close partnerships with countries in the Visa Waiver program and the five-country ministerial to improve respective abilities to identify illicit travel. Just this past November, the Secretary increased the data fields that are collected from Visa Waiver countries where visas are not required for entry into the United States, and to provide additional passport data, contact information, and other potential names or aliases in the travel application submitted under the electronic system for travel authorization before they can travel to the United States.    DHS is increasing efforts to track those who enter and leave Syria and may later seek to travel to the United States without a State Department-issued visa. The terrorist threat is dynamic, and those who operate individually as a part of terrorist organizations will continue to challenge our security measures and our safety.    Mr. Chairman, I would like to end my statement there, and I look forward to the questions from the committee.</t>
   </si>
   <si>
     <t xml:space="preserve">    Chairman McCaul. I thank the Secretary. Excuse me. The Chairman now recognizes Director Rasmussen for his opening statement.</t>
   </si>
   <si>
+    <t>Rasmussen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rasmussen. Thank you, Chairman McCaul, Ranking Member Thompson and Members of the committee. I really do appreciate the opportunity to be here today to discuss the threat posed by foreign fighters and home-grown terror and our efforts as a Government to counter it.    As Frank Taylor said, I am also pleased to join my colleagues and close partners from Homeland Security and the Federal Bureau of Investigation. We work closely and cooperatively every day as a part of a true community of counterterrorism professionals, and I am really grateful for that partnership that we share.    This morning, I will briefly describe the threat we face from foreign fighters, highlight the role that extremist use of social media has played in that process, and conclude with efforts NCTC and our partners across the Federal Government are taking to counter that threat. I will begin with the foreign fighter picture.    As you know, one of the most pressing concerns for the intelligence community is the on-going flow of foreign fighters to Syria, and importantly, the threat they could pose upon return to their home country of home origin. The battlefields in Iraq and Syria clearly provide foreign fighters with combat experience, with training in weapons and explosives, and with access to terror networks that may be ultimately planning targets--attacks which target the West.    The rate of foreign fighter travel that we have seen in recent years is unprecedented. It exceeds the rate of travel and travelers who went to Afghanistan, Pakistan, Iraq, Yemen, or Somalia, other prominent conflict zones, but it exceeds the rate of travel to those conflict zones that we have seen at any point in the last 20 years.    The United States and our allies are increasingly concerned with the more than 20,000 foreign fighters we assess have traveled to Syria from over 90 different countries of origin. We assess that at least 3,400 of these fighters are from Western countries, and that number includes also over 150 U.S. persons who have either traveled to the conflict zone, or attempted to do so. That is something we can speak about in more detail later in the session.    I want to be cautious here about that because it is very difficult to be precise with these numbers, because they come from a wide variety of sources that vary in quality. I would rather focus on the trend lines, which are clear, and which are concerning.    In addition to the foreign fighters who have already traveled, it is clear that the number of those seeking to go to Iraq and Syria is going up. Furthermore, the majority of those who are getting there, getting to the conflict zone right now, are fighting, or looking to fight for ISIL on the battlefield in Syria and Iraq.    It is also a complicating factor that the individuals drawn to fight in foreign conflict zones do not fit any one stereotype or profile. They come from various backgrounds, which highlights the need for comprehensive messaging strategies and early engagement with a variety of communities in order to dissuade vulnerable individuals from trying to travel to conflict zones. The volume and diversity of recruits flowing to and from the conflict makes disruption particularly challenging.    There is no single pipeline for foreign fighter travel into and out of Syria. Violent extremists take different routes, including land, air, and sea. Most routes do involve transit through Turkey because of its geographic proximity to the Syrian border areas where most of these groups operate.    Now this sense of shared threat has prompted even closer cooperation across U.S. Federal agencies, and importantly, with our international partners, particularly in Europe. This is resulting in the development of stricter counterterrorism laws overseas, increased efforts at border security among our European partners, and importantly, more willingness to share threat information among partner nations.    While these good efforts are under way and are making progress, significant work remains, particularly in ensuring that our foreign partners are able and willing to identify and stop foreign fighters when they transit their borders, both to prevent those fighters from entering, and then to stop fighters from leaving their home countries to travel abroad.    Now, I will turn quickly to the use of social media by extremists, and especially by ISIL, and the way in which this group uses social media to attract a diverse set of aspiring foreign fighters.    Now, the Chairman and the Ranking Member both mentioned in their opening remarks the brutal behavior that we have seen of ISIL in recent weeks. The world witnessed the brutal burning of a Jordanian pilot held hostage by the group, and we have seen the cruel beheadings of U.S. and Japanese hostages.    ISIL's media capabilities are robust and effective. Moreover, their ability to generate timely propaganda continues to grow. I would argue that ISIL has proven far more adept than core al-Qaeda ever was, or more adept than any of--core--of al-Qaeda's affiliate groups, more adept at using these new social media tools to reach a broader audience.    Just since January 1 of this year, more than 250 official ISIL products have been published on-line, and the group has shown the capacity to use these products to speak to a full spectrum of potential audiences. Local Sunni Arab populations inside Iraq and Syria, who they are trying to co-opt and exercise dominion over, individuals in coalition countries, and even populations around the world, including English-speaking audiences here and across the globe.    As you would expect, ISIL uses the most popular of social media platforms to disseminate this messaging. YouTube, Facebook, Twitter. They know how to ensure that once their media releases are posted, that they reach far and wide almost instantaneously with reposting, and regeneration of follow-on links and translations into an ever-growing number of additional languages.    Now, in terms of content, we have all seen that it includes these horrible, horrific images in which hostages have been murdered or ISIL's adversaries on the battlefield have been executed in summary fashion. But we have also seen social media images of a bucolic family-friendly welcoming light under ISIL's rule in their self-declared caliphate as ISIL tries to paint a picture to entice disenfranchised individuals seeking ideological, religious, or personal fulfillment, and not just a battlefield or a martyrdom experience.    ISIL also generates releases that cater to a younger population very familiar with popular culture. These releases often reference Western branding, including popular video games, in an attempt to appeal to thrill seekers and youth looking for fulfillment.    Now, the threat we face is not just from foreign fighters or terrorist groups including ISIL and al-Qaeda. Individuals inspired by these and other groups, or simply by violent, extremist propaganda can be motivated to action, and, as Frank said, that can come with little or no warning.    Many of these so-called home-grown violent extremists are lone actors who can potentially operate undetected and who can plan and execute a simple attack without providing us warning. As a community, we closely monitor violent extremist activity, including when that activity appears and occurs in the United States, and we are looking for signs that last year's attacks in Canada and elsewhere may embolden other HBEs to conduct additional attacks.    We believe ISIL's rhetoric may have played a role in these attacks, particularly in target selection in terms of targeting Government officials or military personnel. We are working with our partners across multiple disciplines in the community to increase our knowledge of foreign fighters and to counter extremism.    NCTC has taken a broad center-wide effort to track foreign fighters traveling to Syria. We work in the first instance to resolve the specific identities of these potential fighters to uncover any potential derogatory information that we have in intelligence community holdings.    We are also working closely with foreign partners to combat threats emanating from Syria. We are looking hard to develop investigative leads for our partner agencies to pursue, including identifying foreign fighters entering Syria, who may have potential access or connections to individuals in the homeland so that they can be watch-listed.    The growing number of individuals going abroad as foreign fighters only emphasizes the importance of prevention. Any hope of enduring security or defeating organizations like ISIL rests in our ability to diminish their appeal and to dissuade individuals from joining them in the first place. To this end, we continue to refine and expand the preventive side of terrorism and counterterrorism.    We have seen a steady proliferation of more pro-active and more engaged community awareness efforts across the United States with the goal of giving communities information and tools they need to identify extremism in their midst, and to do something about it before it manifests in violence.    My organization, NCTC, in direct and daily collaboration with DHS, the Justice Department, and FBI, has led the creation of CVE tools to build community resilience across the country. In working closely with these partners, we are doing this work all across the country, and I would like to point to just one quick example.    You will recall the case last year in which three young teenage girls allegedly attempted to travel from Denver to Syria by way of Frankfurt, Germany, where their travel was disrupted by law enforcement. Now, in the aftermath of that incident, we, working together with DHS--DHS, FBI, and the Department of Justice--sent our officers on multiple occasions to meet and talk to the greater Denver community to raise awareness among community and law enforcement partners about the terrorist recruitment threat.    We developed a briefing, working with our partners, that is now tailored to address the specific effort to identify and recruit foreign fighters for Syria and Iraq. We have received a very strong demand signal for more such outreach from communities like Denver, and we continue to try to expand our toolkit of CVE-related tools.    With our DHS colleagues, we have created and we regularly deliver a community resilience exercise program, a table-top exercise that brings together law enforcement with community leaders to run through a hypothetical scenario and talk about response.    We realize we can't institutionalize a prevention approach without scaling up these efforts, and that goes to something you said in your opening statement, Chairman McCaul. So we are working as a community to try to create more programs to train individuals on CVE tools to ensure that communities across the country are able to lead CVE approaches locally in their own communities. This approach syncs up nicely with the efforts of the White House, NCTC, DHS, DOJ, and FBI to facilitate the local development and implementation of intervention frameworks in cities all across the country.    I will stop there, Mr. Chairman----</t>
   </si>
   <si>
@@ -100,6 +121,9 @@
     <t xml:space="preserve">    Chairman McCaul. Mr. Steinbach.</t>
   </si>
   <si>
+    <t>Steinbach</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Steinbach. So certainly, I would not be truthful if I told you that we knew about all the returnees. We--like Nick said, we know what we know. There is a number that we don't know about.    The ones we know about, the numbers of foreign fighters that have returned from Syria, from the conflict zone, every single one of those is a predicated FBI investigation run on the Joint Terrorism Task Force. Regardless of the intelligence or the information that we started with, we go to build the case to disrupt, whether that disruption is in the form of deportation or whether that disruption is in the form of prosecution.    Every single one of those known foreign fighters is an FBI investigation, and we seek to determine the root cause of their travel, what they did in Syria, and then ultimately, if it was in support of a foreign terrorist organization such as ISIL, we look for prosecution or some other disruption.</t>
   </si>
   <si>
@@ -196,12 +220,24 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. I will yield my time to my colleague from Texas, Mr. Hurd.</t>
   </si>
   <si>
     <t>412654</t>
   </si>
   <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hurd. I would like to thank the gentleman from Texas and you here today. I appreciate you all coming here.    I know the difficulty of the task that you all are charged with having spent 9 years as an undercover officer in the CIA, chasing al-Qaeda and the Taliban and places like that--organizations like that. I know the difficulty and--I know that the people in your--the men and women in your organizations are operating as if it is September 12, 2001. Please, when you go back to your organizations, thank them for all of their hard work on behalf of us.    When I was in Pakistan, Afghanistan, you know, the bad guys would push their message through night letters. At night, they would drop letters on people's doorsteps. Now, they have social media, and all three of you will have highlighted that in your testimony and in the documents that you submitted.    My question is--is what efforts--who is coordinating the effort to counter that ideology on social media and these other elements? You know, 20 percent of any counter-insurgency is cutting off the head of the snake, 80 percent is addressing the underlying concerns.    Who is leading that? What are you guys doing in each one of your agencies to counter that?</t>
   </si>
   <si>
@@ -235,6 +271,12 @@
     <t>400230</t>
   </si>
   <si>
+    <t>Langevin</t>
+  </si>
+  <si>
+    <t>James</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Langevin. Thank you, Mr. Chairman, and I want to thank our witnesses for your testimony today.    I would like to turn to the discussion that we have been involved with this morning about tracking those individuals who have been in the conflict zone in Iraq or Syria fighting with ISIS who have U.S. or Western passports.    It is my understanding that we have, you know, somewhat our arms around being able to track those with U.S. passports, but as we have alluded to this morning, we are talking about maybe on the hundreds, or a hundred or so persons with U.S. passports.    But it could be in the thousands for people with Western passports that are fighting in Syria, many of whom with ISIS, and yet those individuals that could travel potentially then back to European countries and could come to the United States, particularly those from Visa Waiver countries--and what I am hearing, what I have heard in past testimony--that it is very difficult perhaps to track those individuals particularly because there are certain governments particularly in the European Union that are reluctant to share threat information on their citizens due to privacy concerns.    I was just in Munich this past weekend at the Munich Security Conference, met with Britain's--their Secretary of Defense, and he confirmed that that is a concern not so much for the United Kingdom because their privacy laws are different, and so that kind of information sharing is not--restricted from Great Britain, but more an issue with continental European countries.    So has this been the experience of NCTC? What are we doing to close that gap? Because that is a significant blind spot for us.</t>
   </si>
   <si>
@@ -259,6 +301,12 @@
     <t>412472</t>
   </si>
   <si>
+    <t>Duncan</t>
+  </si>
+  <si>
+    <t>Jeff</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Duncan. Thank you, Mr. Chairman, for a very timely hearing. I would ask that we schedule a Classified hearing, briefing with some of these intelligence community to get a little different intake--input.</t>
   </si>
   <si>
@@ -298,6 +346,12 @@
     <t>400641</t>
   </si>
   <si>
+    <t>Higgins</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Higgins. Thank you, Mr. Chairman.    Just on two aspects of this. One is the nature of terrorist attacks has changed profoundly. Al-Qaeda and al-Qaeda in the Arabian Peninsula has relied traditionally on complex plots involving explosions in airliners. Now, in September 2014, an ISIS leader told would-be recruits not to bother coming to Iraq or Syria but to launch attacks in their home countries. ISIS has called for attacks on soft targets in the West by any means available, including using a car to drive at pedestrians.    The other issue is technology. As Mr. Steinbach had said, technology moves faster than legislation, a lot faster. You characterize the FBI as labeling this, you know, ``going dark.'' It is increasingly difficult to monitor the communications within terrorist networks. The proliferation of often encrypted, covert, coded information to prevent unauthorized use, from Skype to gaming forums to other new technology, has made surveillance tremendously technologically demanding, and in some cases, virtually impossible.    Moreover, Apple's latest mobile operating system came with a default encryption, and Google's Android is soon to follow. In these systems, companies do not have access to their customers' passwords, and thus can't capture their messages.    Now from a customer standpoint, from a consumer standpoint, you know, that is a very good thing. But those who are malicious--those--the malignancy of terror--it takes away a major tool that law enforcement uses to thwart terrorist activity in its planning stages.    So, could you comment on that and what it is, if anything, we can be doing? You know, there was a time where publicly-owned telephone companies were all too willing to cooperate with law enforcement agencies for wiretaps and those kinds of things. That is no longer the case, and this poses a major, major challenge to Western law enforcement officials.</t>
   </si>
   <si>
@@ -310,6 +364,12 @@
     <t>412569</t>
   </si>
   <si>
+    <t>Perry</t>
+  </si>
+  <si>
+    <t>Scott</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perry. Thank you, Mr. Chairman.    Mr. Taylor, a man named, a jihadist as I would characterize him, named Abdul Sabah from Florida was allowed back into the country and wandered around here for about 6 months in between visits to Syria. Now, he eventually met his demise on his own hand as a suicide bomber in Syria, but as far as I know, we didn't even know. The United States didn't even know that he made two previous trips. So, this individual is obviously somebody that we would be interested in and poses a threat to our security.    How did we--how did your agency--what did we miss? How did we miss it?</t>
   </si>
   <si>
@@ -388,6 +448,12 @@
     <t>412435</t>
   </si>
   <si>
+    <t>Keating</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Keating. Thank you, Mr. Chairman. General Taylor, thank you for your service.    I want to go back to your very first remarks that you began this hearing with. You were talking about your concerns with the budget in homeland security. You know, there is a dangerous game of chicken that is going on right now, where in reaction to the President's immigration efforts, the reaction has been to threaten withholding of the very funding that protects our homeland security.    Now, I don't think in the minds of the public they think there will be an absolute cutting of--out those funds, because that would be so radical a reaction. I don't think they think that is feasible. However, my point is, the reaction of going from these stop-gap budgets, continuing resolutions from month to month, backwards and forwards, that presents real limits on what you can do itself.    So, I want you to focus on the fact that, forget about for a second the threat of just the cutting off of those funds. Right now the way you are functioning is a threat to your ability to deal with our security.    Could you talk to that important point, I believe?</t>
   </si>
   <si>
@@ -427,6 +493,12 @@
     <t>412604</t>
   </si>
   <si>
+    <t>Clawson</t>
+  </si>
+  <si>
+    <t>Curtis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Clawson. Thank you for coming, you all, today. I also pass along my best to the folks that work with y'all. They got a real tough job. Democracy is messy on Capitol Hill, and so the circumstances are difficult. So my full respect and appreciation for what y'all do.    When I think about terrorists coming out of a dangerous part of the world like this and what is going on over there, I always think to Turkey. Honorable Mr. Rasmussen, you mentioned it, I think, earlier in your comments. On the one hand, Turkey has a proud history, a secular history. They got how many thousands of terrorists go to the Aegean Sea every year, manufacturing product going out of Ismir back to Europe, and a member of NATO.    So you would think, on the one hand, these folks ought to be motivated to get things under control here with respect to the highway of tourists. On the other hand, I read about hostage exchanges with ISIL. There has been a long history, as you know, of problems with the Kurds. Also, it almost feels like there is ambivalence with respect to the violence on the border--I mean, on the border, with a war going on.    It doesn't feel to me like we can solve this problem over there, and therefore, over here without pinning down where Turkey really is. I don't know where they are. If we can't get an ally who is a member of NATO to help us in the region, I am not sure what we could expect from anybody else.    So I--you know, I am befuddled on where this is going and how we could ever have success without Turkey, and I am really interested in what you have to say about that.</t>
   </si>
   <si>
@@ -457,6 +529,12 @@
     <t>412624</t>
   </si>
   <si>
+    <t>Loudermilk</t>
+  </si>
+  <si>
+    <t>Barry</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Loudermilk. Thank you, Mr. Chairman.    To the witnesses here today, I appreciate you being here. I don't know that when in my lifetime, I have been more concerned about the internal security of America, not just from our safety and security, but our economic security and on several fronts for different reasons.    One of the things that I know that has been spoken about here and at other times is the threat of ISIS as not only being what I understand the most well-funded, the best organized terrorist organization possibly in the history, but also their ability to effectively use the internet and social media.    There is one thing to use social media, but those of us engaged in politics, we spend a lot of time studying the effective use of social media. How do you come up and stand out amongst billions of users across the world? It appears that ISIS is doing a very good job. They are effectively marketing to our youth, which is specially concerning to me, especially those that are vulnerable, those are--feel disenfranchised and even using video games, as you have mentioned.    So what are we doing--are we working with internet providers, social media providers to help combat the use of the internet and social media to spread their radical Islamic idealism that I think is a threat to the future? Are we working with those companies, and are they participating?</t>
   </si>
   <si>
@@ -490,6 +568,12 @@
     <t>412506</t>
   </si>
   <si>
+    <t>Payne</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Payne. Thank you, Mr. Chairman, and to the Ranking Member.    You know, a lot of this discussion today and over the past month or so has been very interesting to me. Here we are, a committee with the responsibility of making sure that the homeland remains safe. But yet and still--everyone talks about making sure that that happens, but there are a group in the Congress that are willing to play politics with this country's security.    You know, politics is part of what we do, but to pick Homeland Security in order to make your point is dangerous. I travel from my district in New Jersey, the 10th Congressional district, which takes in Newark, New Jersey, a tier-one target. Prudential Insurance Company was targeted several years ago, about a decade ago, for an attack.    If you go to Jersey City in my district, where I went on September 12 and saw the smoldering building from across the river--we cannot play games with the funding for this Department because of a policy that you don't agree with in the Executive branch. It makes no sense.    With that--oh, and let me just say, Mr. Chairman, I had come down from my district on the train Monday night, and in the train station there were DHS police officers, and I went over and spoke to them and thanked them for their service and the things they are doing for this country. They asked me to send a message back to Congress, and it was please give us the resources and the funding we need to do this job. Do not cut our legs from under us.    So, we can't continue saying we appreciate their service and work, but yet we will not give them the resources that they need to do the job. So, Under Secretary Taylor, you mentioned that not fully funding the Department of Homeland Security would have a crippling effect on domestic security.    Could you please explain how if the Department of Homeland Security is not provided with the full-year funding, efforts to prevent foreign fighters and their travel would be affected, since that seems to be a great concern on the other side, how not funding the Department will impact that ability?</t>
   </si>
   <si>
@@ -514,6 +598,12 @@
     <t>412649</t>
   </si>
   <si>
+    <t>Katko</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Katko. Thank you, Mr. Chairman.    Mr. Steinbach, earlier you testified that the FBI did not have a process in place to vet and conduct background checks for Syrian refugees. What tools or capabilities would the FBI need to be able to conduct these checks?</t>
   </si>
   <si>
@@ -589,6 +679,12 @@
     <t>412644</t>
   </si>
   <si>
+    <t>Watson Coleman</t>
+  </si>
+  <si>
+    <t>Bonnie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Watson Coleman. Thank you, Mr. Chairman and thank you Mr. Thompson. Gentlemen, I am sorry I wasn't here for the beginning of your testimony, but I spent my last night reading it, and I found it fascinating.    So, I want you to know that I am very appreciative of what each of your agencies is doing and attempting to do and identifying in terms of keeping us safe here. How you have expanded your interactions, and your information sharing, and your methodologies, and your creativity with other--places, including foreign countries so that we can all be safe.    That is very important to me. I am particularly struck by Homeland Security and I want to associate myself with Mr. Keating and Mr. Paine's remarks about our responsibility to ensure that as you are the protector of the homeland, that you have the resources necessary to be flexible, to be responsive, to be proactive, to do what you need to do to keep me safe without engaging in the political wranglings of whether or not we should be holding the President's foot to the fire on something that he did because Congress couldn't see fit to do.    But nonetheless, my question is more narrowed, and I think it is similar to Mr. Loudermilk's questioning. I am concerned about growing our terrorists here, taking who we think are everyday young people, having them exposed to the way these radical organizations use the social media and any other recruitment resources, and how--what is it that we can do to sort of cut it off at the pass?    What is it that we should be doing in terms of accessing young students, vulnerable college students? Are there resources that we should be putting in educating and counteracting some of this negative propaganda, this ideology-spewing that is taking place with--how do we help our communities and our families see signs?    Are there any commonalities of the characteristics of people that we have seen that seem to be most vulnerable that are home-grown, that seem most vulnerable to this radicalization? Can you share with me where you think our greatest threat is in terms of the security?    Is it on the Southern Border of the United States and Mexico? Is it some other borders that we are talking about? For someone like me, I consider myself Spongebob. I want to soak up as much information as I can get. I need to have a better understanding of those questions, and whoever is able to answer any part of it, I would be greatly appreciative.</t>
   </si>
   <si>
@@ -610,6 +706,12 @@
     <t>412622</t>
   </si>
   <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Buddy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Carter. Thank you, Mr. Chairman, thank you, gentlemen for being here and thank you for what you do to protect our homeland. We appreciate it very much.    Let me ask you--you know, this is the kind of report that you read through and you are concerned about everything, and not one thing more so than the other. But one of the things that struck me was about the foreign fighter travel. I just want to know what we can do to better control that. From what I understand, we are not using all of our resources. I don't know that the administration has even identified a lead agency to combat this. Is that true?</t>
   </si>
   <si>
@@ -664,6 +766,12 @@
     <t>400199</t>
   </si>
   <si>
+    <t>Jackson Lee</t>
+  </si>
+  <si>
+    <t>Sheila</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Jackson Lee. Let me thank the Chairman--let me thank the Chairman and the Ranking Member for this very important hearing. Let me state to the witnesses I was delayed because we were holding a crime subcommittee in Judiciary, of which I am the Ranking Member.    This is an extremely important hearing, and it is issued in the backdrop of several worthy comments. The President has now released his AUMF, which is a singular notice to the Congress of the importance of addressing the question of ISIS and the potential of the United States engaging in some form of military action to be able to secure this Nation.    I indicated in remarks earlier today on the floor that the Department of Homeland Security provides a domestic armor, a National armor of security. That is the responsibility of that. For many of us on this committee, we have had the privilege of serving since the horrendous and heinous act of 9/11.    Often, I make the comment, certainly not proudly, that I was on or at Ground Zero during the moments of the extended time of looking for remains. It will always be a potent and striking moment in my life, and I take seriously the responsibilities of this committee.    For that reason, I believe it is crucial that we do not hold hostage this Department. We have actually 7 days to make amends on the funding of the Department of the Homeland Security, and I remind my colleagues that the issue of unaccompanied children or the President's Executive Actions do not pose the kind of heinous threat that we are talking about today.    I frankly think this is an important discussion, and many front-line DHS employees will be, in essence, hindered from their work without the full funding of this committee.    I ask you Mr. Taylor, just a simple question, that in the midst of your jurisdiction and employees that you have under your jurisdiction, without funding for this Department, will some of them not be paid or some of them have to be furloughed, or some issue may come up regarding their service?</t>
   </si>
   <si>
@@ -706,6 +814,12 @@
     <t>412611</t>
   </si>
   <si>
+    <t>McSally</t>
+  </si>
+  <si>
+    <t>Martha</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. McSally. Thank you, Mr. Chairman, and thank you, gentlemen, for your testimony here and--try and look at you while I am talking here with my colleague in the way.    So I appreciate your work that you have been doing. I was 26 years in the military and worked especially, Director Rasmussen, with your organization, and my last assignment at U.S. Africa Command running current operations there to include our counterterrorism operations.    I am aware you all have been dealing with the foreign fighter issue long before a lot of people are now paying attention to it. But we were watching it even back then, 2007 to 2010, where we had foreign fighters flowing from many places but into areas for al-Shabaab training camps and AQAP and AQIM, North Africa, any of these ungoverned spaces, as you know.    I will say as someone in the military, it caused great frustration as much as what we have been talking about today is mostly on the defense, to your terminology. But in order to address this, it needs to be a comprehensive whole-of-Government approach, for sure. But I sure would prefer to be on the offense primarily, and that includes going after these people that have, you know, decided to become enemy combatants in a generational struggle against us, as well as going after the core ideology.    So at the Unclassified level--I mean, you know this. We watched thousands of foreign fighters graduate from these training camps because, quite frankly, we didn't have the political will to do anything about it on the offense at the time, not thinking it was within our interest or it wasn't a threat to our country. God knows where those thousands of jihadists who graduated from these training camps all over Africa--where they are now. I mean, who knows where they are today?    But we just watched them. We let them go. We did nothing about it. Where we had tremendous opportunity to do some things, we just didn't do it. So we have been focusing on the foreign fighter problem with ISIS, but I do want you to comment on your perspective of the foreign fighter problem in other ungoverned areas that we can't forget about, to include many of them in Africa. I would just like your perspectives on what we are seeing through there.</t>
   </si>
   <si>
@@ -727,6 +841,12 @@
     <t>412617</t>
   </si>
   <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Norma</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mrs. Torres. Thank you so much, Mr. Chairman. I apologize to the panel for giving you my back, but unfortunate circumstances of seating arrangements--I would like to go back to the question that was asked by Ranking Member Thompson for you, Under Secretary Taylor. Without a full year funding bill, the Department of Homeland Security cannot award, it was my understanding, $2.6 million, correct? Billion dollars.</t>
   </si>
   <si>
@@ -752,6 +872,9 @@
   </si>
   <si>
     <t>412653</t>
+  </si>
+  <si>
+    <t>Ratcliffe</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Ratcliffe. Thank you, Mr. Chairman.    Gentlemen, I have very much enjoyed and appreciated your testimony today. As a former terrorism prosecutor and as a former United States attorney, I have had the good fortune to work with each of your agencies before on a number of occasions, and I very much look forward to the opportunity to do so again as a Member of this committee.    Mr. Steinbach, I would like to start with you. Your boss, director of the FBI Jim Comey recently expressed concern about technology companies using encryption methods on mobile devices, specifically in response to an Apple representative's statement that it would no longer be possible to unlock encrypted iPhones and iPads. Director Comey drew an analogy to child kidnappers, and he said, ``The notion that someone would market a closet that could never been opened, even if it involves a case involving a child kidnapper and a court order, to me, that does not make any sense.''    As a former terrorism prosecutor, I share Director Comey's concern and can certainly see how the inability to access encrypted devices would hamper terrorism investigations. So my question is: What is the FBI's plan to deal with this? Have you engaged the technology industry to address these concerns?</t>
@@ -1124,7 +1247,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H232"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1132,7 +1255,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1154,5549 +1277,6513 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
       <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
       <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
       <c r="H21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>11</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
-      </c>
-      <c r="G24" t="s"/>
-      <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s"/>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>11</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
       <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
-      </c>
-      <c r="G26" t="s"/>
-      <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G26" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" t="s"/>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>14</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G33" t="s">
+        <v>35</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>14</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>18</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>14</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>18</v>
-      </c>
-      <c r="G38" t="s"/>
-      <c r="H38" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G38" t="s">
+        <v>35</v>
+      </c>
+      <c r="H38" t="s"/>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>18</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G40" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>18</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G42" t="s">
+        <v>24</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>11</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G46" t="s">
+        <v>13</v>
+      </c>
       <c r="H46" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>59</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
       <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>69</v>
+      </c>
+      <c r="I47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>61</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G48" t="s">
+        <v>72</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>18</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G49" t="s">
+        <v>27</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>61</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G50" t="s">
+        <v>72</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I50" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G51" t="s">
+        <v>27</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G52" t="s">
+        <v>35</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>61</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G53" t="s">
+        <v>72</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I53" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>18</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G54" t="s">
+        <v>24</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>18</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G55" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>71</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>73</v>
+      </c>
+      <c r="I56" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G57" t="s">
+        <v>13</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>72</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>85</v>
+      </c>
       <c r="H58" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>18</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G59" t="s">
+        <v>27</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>72</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>18</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G61" t="s">
+        <v>24</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>18</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G62" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G64" t="s">
+        <v>13</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>80</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G65" t="s">
+        <v>95</v>
+      </c>
       <c r="H65" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I65" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>80</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G67" t="s">
+        <v>95</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>80</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G69" t="s">
+        <v>95</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I69" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>18</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G70" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G71" t="s">
+        <v>95</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I71" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>18</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G72" t="s">
+        <v>24</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>80</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G73" t="s">
+        <v>95</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I73" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>18</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>80</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>94</v>
+      </c>
+      <c r="G75" t="s">
+        <v>95</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>11</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>13</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>109</v>
+      </c>
+      <c r="G77" t="s">
+        <v>110</v>
+      </c>
       <c r="H77" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>111</v>
+      </c>
+      <c r="I77" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>18</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G78" t="s">
+        <v>35</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>11</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G79" t="s">
+        <v>13</v>
+      </c>
       <c r="H79" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I79" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>97</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G80" t="s">
+        <v>116</v>
+      </c>
       <c r="H80" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>18</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>97</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G82" t="s">
+        <v>116</v>
+      </c>
       <c r="H82" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I82" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>18</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G83" t="s">
+        <v>24</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>97</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G84" t="s">
+        <v>116</v>
+      </c>
       <c r="H84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I84" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>18</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G85" t="s">
+        <v>24</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>97</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G86" t="s">
+        <v>116</v>
+      </c>
       <c r="H86" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I86" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>18</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G87" t="s">
+        <v>24</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>97</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G88" t="s">
+        <v>116</v>
+      </c>
       <c r="H88" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I88" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G89" t="s">
+        <v>24</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>97</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G90" t="s">
+        <v>116</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I90" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>18</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G91" t="s">
+        <v>24</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>97</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G92" t="s">
+        <v>116</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I92" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>18</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G93" t="s">
+        <v>27</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>97</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G94" t="s">
+        <v>116</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I94" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>18</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G95" t="s">
+        <v>35</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>97</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G96" t="s">
+        <v>116</v>
+      </c>
       <c r="H96" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G97" t="s">
+        <v>35</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>97</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G98" t="s">
+        <v>116</v>
+      </c>
       <c r="H98" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>18</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G99" t="s">
+        <v>35</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>97</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G100" t="s">
+        <v>116</v>
+      </c>
       <c r="H100" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="101" spans="1:8">
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>18</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>35</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>97</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G102" t="s">
+        <v>116</v>
+      </c>
       <c r="H102" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I102" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>18</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G103" t="s">
+        <v>35</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>97</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>115</v>
+      </c>
+      <c r="G104" t="s">
+        <v>116</v>
+      </c>
       <c r="H104" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>117</v>
+      </c>
+      <c r="I104" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>11</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G105" t="s">
+        <v>13</v>
+      </c>
       <c r="H105" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>123</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G106" t="s">
+        <v>144</v>
+      </c>
       <c r="H106" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>18</v>
-      </c>
-      <c r="G107" t="s"/>
-      <c r="H107" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G107" t="s">
+        <v>24</v>
+      </c>
+      <c r="H107" t="s"/>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>123</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G108" t="s">
+        <v>144</v>
+      </c>
       <c r="H108" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>18</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G110" t="s">
+        <v>144</v>
+      </c>
       <c r="H110" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>18</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G111" t="s">
+        <v>24</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>123</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G112" t="s">
+        <v>144</v>
+      </c>
       <c r="H112" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>18</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G113" t="s">
+        <v>24</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>123</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G114" t="s">
+        <v>144</v>
+      </c>
       <c r="H114" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>18</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G115" t="s">
+        <v>24</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>123</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>143</v>
+      </c>
+      <c r="G116" t="s">
+        <v>144</v>
+      </c>
       <c r="H116" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>145</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>11</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G117" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>136</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G118" t="s">
+        <v>159</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I118" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>18</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>136</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G120" t="s">
+        <v>159</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I120" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>18</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G121" t="s">
+        <v>24</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>136</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>158</v>
+      </c>
+      <c r="G122" t="s">
+        <v>159</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>160</v>
+      </c>
+      <c r="I122" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>11</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G123" t="s">
+        <v>13</v>
+      </c>
       <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>18</v>
-      </c>
-      <c r="G124" t="s"/>
-      <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G124" t="s">
+        <v>24</v>
+      </c>
+      <c r="H124" t="s"/>
+      <c r="I124" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>18</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G125" t="s">
+        <v>24</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>146</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G127" t="s">
+        <v>171</v>
+      </c>
       <c r="H127" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>18</v>
-      </c>
-      <c r="G128" t="s"/>
-      <c r="H128" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G128" t="s">
+        <v>27</v>
+      </c>
+      <c r="H128" t="s"/>
+      <c r="I128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>18</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G129" t="s">
+        <v>35</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>146</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G130" t="s">
+        <v>171</v>
+      </c>
       <c r="H130" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>18</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G131" t="s">
+        <v>35</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>146</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>170</v>
+      </c>
+      <c r="G132" t="s">
+        <v>171</v>
+      </c>
       <c r="H132" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>172</v>
+      </c>
+      <c r="I132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>18</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G133" t="s">
+        <v>35</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>18</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>35</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>157</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G137" t="s">
+        <v>184</v>
+      </c>
       <c r="H137" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I137" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>18</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>24</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>157</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G139" t="s">
+        <v>184</v>
+      </c>
       <c r="H139" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I139" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>18</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G140" t="s">
+        <v>24</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>157</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G141" t="s">
+        <v>184</v>
+      </c>
       <c r="H141" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I141" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>18</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G142" t="s">
+        <v>24</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>157</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>183</v>
+      </c>
+      <c r="G143" t="s">
+        <v>184</v>
+      </c>
       <c r="H143" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>185</v>
+      </c>
+      <c r="I143" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
-      </c>
-      <c r="G144" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G144" t="s">
+        <v>13</v>
+      </c>
       <c r="H144" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>165</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G145" t="s">
+        <v>194</v>
+      </c>
       <c r="H145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I145" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>18</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>165</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G147" t="s">
+        <v>194</v>
+      </c>
       <c r="H147" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I147" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>18</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G148" t="s">
+        <v>35</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>165</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G149" t="s">
+        <v>194</v>
+      </c>
       <c r="H149" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I149" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>18</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G150" t="s">
+        <v>35</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>165</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G151" t="s">
+        <v>194</v>
+      </c>
       <c r="H151" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I151" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>18</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G152" t="s">
+        <v>24</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>165</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G153" t="s">
+        <v>194</v>
+      </c>
       <c r="H153" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I153" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>18</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G154" t="s">
+        <v>24</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>165</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G155" t="s">
+        <v>194</v>
+      </c>
       <c r="H155" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I155" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>18</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G156" t="s">
+        <v>24</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>165</v>
-      </c>
-      <c r="G157" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G157" t="s">
+        <v>194</v>
+      </c>
       <c r="H157" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I157" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>18</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G158" t="s">
+        <v>24</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>165</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G159" t="s">
+        <v>194</v>
+      </c>
       <c r="H159" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I159" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>18</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G160" t="s">
+        <v>24</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>165</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G161" t="s">
+        <v>194</v>
+      </c>
       <c r="H161" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I161" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>18</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G162" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>165</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G163" t="s">
+        <v>194</v>
+      </c>
       <c r="H163" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I163" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>18</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G164" t="s">
+        <v>24</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>165</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G165" t="s">
+        <v>194</v>
+      </c>
       <c r="H165" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I165" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>18</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G166" t="s">
+        <v>24</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>165</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G167" t="s">
+        <v>194</v>
+      </c>
       <c r="H167" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I167" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>18</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G168" t="s">
+        <v>24</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>165</v>
-      </c>
-      <c r="G169" t="s"/>
+        <v>193</v>
+      </c>
+      <c r="G169" t="s">
+        <v>194</v>
+      </c>
       <c r="H169" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I169" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>11</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G170" t="s">
+        <v>13</v>
+      </c>
       <c r="H170" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I170" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>190</v>
-      </c>
-      <c r="G171" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G171" t="s">
+        <v>221</v>
+      </c>
       <c r="H171" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I171" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>18</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G172" t="s">
+        <v>27</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>18</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G173" t="s">
+        <v>24</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>11</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G174" t="s">
+        <v>13</v>
+      </c>
       <c r="H174" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I174" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>190</v>
-      </c>
-      <c r="G175" t="s"/>
+        <v>220</v>
+      </c>
+      <c r="G175" t="s">
+        <v>221</v>
+      </c>
       <c r="H175" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="I175" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>11</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G176" t="s">
+        <v>13</v>
+      </c>
       <c r="H176" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I176" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>197</v>
-      </c>
-      <c r="G177" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G177" t="s">
+        <v>230</v>
+      </c>
       <c r="H177" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I177" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>18</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G178" t="s">
+        <v>35</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>197</v>
-      </c>
-      <c r="G179" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G179" t="s">
+        <v>230</v>
+      </c>
       <c r="H179" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I179" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>18</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G180" t="s">
+        <v>35</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>197</v>
-      </c>
-      <c r="G181" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G181" t="s">
+        <v>230</v>
+      </c>
       <c r="H181" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I181" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>18</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G182" t="s">
+        <v>24</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>197</v>
-      </c>
-      <c r="G183" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G183" t="s">
+        <v>230</v>
+      </c>
       <c r="H183" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I183" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>18</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G184" t="s">
+        <v>24</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>197</v>
-      </c>
-      <c r="G185" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G185" t="s">
+        <v>230</v>
+      </c>
       <c r="H185" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I185" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>18</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G186" t="s">
+        <v>24</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>197</v>
-      </c>
-      <c r="G187" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G187" t="s">
+        <v>230</v>
+      </c>
       <c r="H187" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I187" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>18</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G188" t="s">
+        <v>24</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>197</v>
-      </c>
-      <c r="G189" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G189" t="s">
+        <v>230</v>
+      </c>
       <c r="H189" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I189" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>18</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G190" t="s">
+        <v>24</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>197</v>
-      </c>
-      <c r="G191" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G191" t="s">
+        <v>230</v>
+      </c>
       <c r="H191" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I191" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>18</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G192" t="s">
+        <v>24</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>197</v>
-      </c>
-      <c r="G193" t="s"/>
+        <v>229</v>
+      </c>
+      <c r="G193" t="s">
+        <v>230</v>
+      </c>
       <c r="H193" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>231</v>
+      </c>
+      <c r="I193" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>215</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G195" t="s">
+        <v>250</v>
+      </c>
       <c r="H195" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I195" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>18</v>
-      </c>
-      <c r="G196" t="s"/>
-      <c r="H196" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G196" t="s">
+        <v>24</v>
+      </c>
+      <c r="H196" t="s"/>
+      <c r="I196" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>215</v>
-      </c>
-      <c r="G197" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G197" t="s">
+        <v>250</v>
+      </c>
       <c r="H197" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I197" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>18</v>
-      </c>
-      <c r="G198" t="s"/>
-      <c r="H198" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G198" t="s">
+        <v>24</v>
+      </c>
+      <c r="H198" t="s"/>
+      <c r="I198" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>215</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G199" t="s">
+        <v>250</v>
+      </c>
       <c r="H199" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I199" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9">
       <c r="A200" s="1" t="n">
         <v>198</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D200" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E200" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F200" t="s">
-        <v>18</v>
-      </c>
-      <c r="G200" t="s"/>
-      <c r="H200" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G200" t="s">
+        <v>24</v>
+      </c>
+      <c r="H200" t="s"/>
+      <c r="I200" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" s="1" t="n">
         <v>199</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C201" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D201" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E201" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F201" t="s">
-        <v>215</v>
-      </c>
-      <c r="G201" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G201" t="s">
+        <v>250</v>
+      </c>
       <c r="H201" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I201" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="A202" s="1" t="n">
         <v>200</v>
       </c>
       <c r="B202" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C202" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F202" t="s">
-        <v>18</v>
-      </c>
-      <c r="G202" t="s"/>
-      <c r="H202" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G202" t="s">
+        <v>24</v>
+      </c>
+      <c r="H202" t="s"/>
+      <c r="I202" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9">
       <c r="A203" s="1" t="n">
         <v>201</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F203" t="s">
-        <v>215</v>
-      </c>
-      <c r="G203" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G203" t="s">
+        <v>250</v>
+      </c>
       <c r="H203" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I203" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" s="1" t="n">
         <v>202</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D204" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E204" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F204" t="s">
-        <v>18</v>
-      </c>
-      <c r="G204" t="s"/>
-      <c r="H204" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G204" t="s">
+        <v>24</v>
+      </c>
+      <c r="H204" t="s"/>
+      <c r="I204" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="A205" s="1" t="n">
         <v>203</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D205" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E205" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F205" t="s">
-        <v>215</v>
-      </c>
-      <c r="G205" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G205" t="s">
+        <v>250</v>
+      </c>
       <c r="H205" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I205" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9">
       <c r="A206" s="1" t="n">
         <v>204</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D206" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E206" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F206" t="s">
-        <v>18</v>
-      </c>
-      <c r="G206" t="s"/>
-      <c r="H206" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G206" t="s">
+        <v>24</v>
+      </c>
+      <c r="H206" t="s"/>
+      <c r="I206" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" s="1" t="n">
         <v>205</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D207" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E207" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F207" t="s">
-        <v>215</v>
-      </c>
-      <c r="G207" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G207" t="s">
+        <v>250</v>
+      </c>
       <c r="H207" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I207" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="A208" s="1" t="n">
         <v>206</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D208" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E208" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F208" t="s">
-        <v>18</v>
-      </c>
-      <c r="G208" t="s"/>
-      <c r="H208" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G208" t="s">
+        <v>35</v>
+      </c>
+      <c r="H208" t="s"/>
+      <c r="I208" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9">
       <c r="A209" s="1" t="n">
         <v>207</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D209" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E209" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F209" t="s">
-        <v>215</v>
-      </c>
-      <c r="G209" t="s"/>
+        <v>249</v>
+      </c>
+      <c r="G209" t="s">
+        <v>250</v>
+      </c>
       <c r="H209" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>251</v>
+      </c>
+      <c r="I209" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" s="1" t="n">
         <v>208</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D210" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E210" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F210" t="s">
-        <v>11</v>
-      </c>
-      <c r="G210" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G210" t="s">
+        <v>13</v>
+      </c>
       <c r="H210" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I210" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="A211" s="1" t="n">
         <v>209</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D211" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E211" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F211" t="s">
-        <v>229</v>
-      </c>
-      <c r="G211" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="G211" t="s">
+        <v>266</v>
+      </c>
       <c r="H211" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I211" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C212" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D212" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E212" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F212" t="s">
-        <v>18</v>
-      </c>
-      <c r="G212" t="s"/>
-      <c r="H212" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G212" t="s">
+        <v>27</v>
+      </c>
+      <c r="H212" t="s"/>
+      <c r="I212" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" s="1" t="n">
         <v>211</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D213" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E213" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F213" t="s">
-        <v>229</v>
-      </c>
-      <c r="G213" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="G213" t="s">
+        <v>266</v>
+      </c>
       <c r="H213" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I213" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="A214" s="1" t="n">
         <v>212</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D214" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E214" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F214" t="s">
-        <v>18</v>
-      </c>
-      <c r="G214" t="s"/>
-      <c r="H214" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G214" t="s">
+        <v>24</v>
+      </c>
+      <c r="H214" t="s"/>
+      <c r="I214" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9">
       <c r="A215" s="1" t="n">
         <v>213</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D215" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E215" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F215" t="s">
-        <v>229</v>
-      </c>
-      <c r="G215" t="s"/>
+        <v>265</v>
+      </c>
+      <c r="G215" t="s">
+        <v>266</v>
+      </c>
       <c r="H215" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>267</v>
+      </c>
+      <c r="I215" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" s="1" t="n">
         <v>214</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C216" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E216" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
-      </c>
-      <c r="G216" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G216" t="s">
+        <v>13</v>
+      </c>
       <c r="H216" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I216" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="A217" s="1" t="n">
         <v>215</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D217" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E217" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F217" t="s">
-        <v>236</v>
-      </c>
-      <c r="G217" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="G217" t="s">
+        <v>275</v>
+      </c>
       <c r="H217" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I217" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9">
       <c r="A218" s="1" t="n">
         <v>216</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F218" t="s">
-        <v>18</v>
-      </c>
-      <c r="G218" t="s"/>
-      <c r="H218" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G218" t="s">
+        <v>24</v>
+      </c>
+      <c r="H218" t="s"/>
+      <c r="I218" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" s="1" t="n">
         <v>217</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C219" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D219" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E219" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F219" t="s">
-        <v>236</v>
-      </c>
-      <c r="G219" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="G219" t="s">
+        <v>275</v>
+      </c>
       <c r="H219" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I219" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="A220" s="1" t="n">
         <v>218</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D220" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E220" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F220" t="s">
-        <v>18</v>
-      </c>
-      <c r="G220" t="s"/>
-      <c r="H220" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G220" t="s">
+        <v>24</v>
+      </c>
+      <c r="H220" t="s"/>
+      <c r="I220" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9">
       <c r="A221" s="1" t="n">
         <v>219</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D221" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E221" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F221" t="s">
-        <v>236</v>
-      </c>
-      <c r="G221" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="G221" t="s">
+        <v>275</v>
+      </c>
       <c r="H221" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I221" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" s="1" t="n">
         <v>220</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E222" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F222" t="s">
-        <v>18</v>
-      </c>
-      <c r="G222" t="s"/>
-      <c r="H222" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G222" t="s">
+        <v>24</v>
+      </c>
+      <c r="H222" t="s"/>
+      <c r="I222" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="A223" s="1" t="n">
         <v>221</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E223" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F223" t="s">
-        <v>236</v>
-      </c>
-      <c r="G223" t="s"/>
+        <v>274</v>
+      </c>
+      <c r="G223" t="s">
+        <v>275</v>
+      </c>
       <c r="H223" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
+        <v>276</v>
+      </c>
+      <c r="I223" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9">
       <c r="A224" s="1" t="n">
         <v>222</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C224" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D224" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E224" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F224" t="s">
-        <v>11</v>
-      </c>
-      <c r="G224" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G224" t="s">
+        <v>13</v>
+      </c>
       <c r="H224" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I224" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" s="1" t="n">
         <v>223</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D225" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E225" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F225" t="s">
-        <v>245</v>
-      </c>
-      <c r="G225" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G225" t="s">
+        <v>286</v>
+      </c>
       <c r="H225" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I225" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="A226" s="1" t="n">
         <v>224</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C226" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D226" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E226" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F226" t="s">
-        <v>18</v>
-      </c>
-      <c r="G226" t="s"/>
-      <c r="H226" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G226" t="s">
+        <v>35</v>
+      </c>
+      <c r="H226" t="s"/>
+      <c r="I226" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9">
       <c r="A227" s="1" t="n">
         <v>225</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C227" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D227" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E227" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F227" t="s">
-        <v>245</v>
-      </c>
-      <c r="G227" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G227" t="s">
+        <v>286</v>
+      </c>
       <c r="H227" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I227" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" s="1" t="n">
         <v>226</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E228" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F228" t="s">
-        <v>18</v>
-      </c>
-      <c r="G228" t="s"/>
-      <c r="H228" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G228" t="s">
+        <v>35</v>
+      </c>
+      <c r="H228" t="s"/>
+      <c r="I228" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="A229" s="1" t="n">
         <v>227</v>
       </c>
       <c r="B229" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E229" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F229" t="s">
-        <v>245</v>
-      </c>
-      <c r="G229" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G229" t="s">
+        <v>286</v>
+      </c>
       <c r="H229" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I229" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9">
       <c r="A230" s="1" t="n">
         <v>228</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D230" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E230" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F230" t="s">
-        <v>18</v>
-      </c>
-      <c r="G230" t="s"/>
-      <c r="H230" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>23</v>
+      </c>
+      <c r="G230" t="s">
+        <v>35</v>
+      </c>
+      <c r="H230" t="s"/>
+      <c r="I230" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" s="1" t="n">
         <v>229</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D231" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E231" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F231" t="s">
-        <v>245</v>
-      </c>
-      <c r="G231" t="s"/>
+        <v>285</v>
+      </c>
+      <c r="G231" t="s">
+        <v>286</v>
+      </c>
       <c r="H231" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>195</v>
+      </c>
+      <c r="I231" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="A232" s="1" t="n">
         <v>230</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D232" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E232" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F232" t="s">
-        <v>11</v>
-      </c>
-      <c r="G232" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G232" t="s">
+        <v>13</v>
+      </c>
       <c r="H232" t="s">
-        <v>253</v>
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>294</v>
       </c>
     </row>
   </sheetData>
